--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_14_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_14_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100051.3066845654</v>
+        <v>-100821.320283633</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>5.309829763041575</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,61 +1291,61 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>3.33498035419292</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="D10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>251.3538804794598</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>40.14687173873753</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.550408888241</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.4226819530072</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>202.9732493819571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>59.81603987441162</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.24420776110927</v>
+        <v>66.24420776110929</v>
       </c>
       <c r="T11" t="n">
-        <v>89.52672523994676</v>
+        <v>89.52672523994678</v>
       </c>
       <c r="U11" t="n">
-        <v>70.87620332198838</v>
+        <v>119.9256841735671</v>
       </c>
       <c r="V11" t="n">
         <v>196.3722972861141</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>217.8610075333922</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>238.3511394944482</v>
       </c>
       <c r="Y11" t="n">
         <v>254.8579774720328</v>
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>35.15322246584651</v>
+        <v>35.15322246584654</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>41.32853780429494</v>
       </c>
       <c r="D12" t="n">
-        <v>16.06510438061792</v>
+        <v>16.06510438061795</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>26.26511927138014</v>
       </c>
       <c r="F12" t="n">
-        <v>13.68925120936305</v>
+        <v>13.68925120936308</v>
       </c>
       <c r="G12" t="n">
-        <v>5.695981897545057</v>
+        <v>5.695981897545085</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>83.54476967999807</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>166.71309989434</v>
@@ -1503,19 +1503,19 @@
         <v>199.0862173745079</v>
       </c>
       <c r="U12" t="n">
-        <v>94.54381733895104</v>
+        <v>94.54381733895107</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>148.2984017317562</v>
+        <v>231.8431714117539</v>
       </c>
       <c r="X12" t="n">
-        <v>74.39302401945665</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>74.30273459328353</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.45201899791647</v>
+        <v>48.4520189979165</v>
       </c>
       <c r="C13" t="n">
-        <v>35.86685991460701</v>
+        <v>35.86685991460703</v>
       </c>
       <c r="D13" t="n">
-        <v>17.23551183419153</v>
+        <v>17.23551183419156</v>
       </c>
       <c r="E13" t="n">
-        <v>15.05400146254834</v>
+        <v>15.05400146254837</v>
       </c>
       <c r="F13" t="n">
-        <v>14.04108683891042</v>
+        <v>14.04108683891045</v>
       </c>
       <c r="G13" t="n">
-        <v>36.38669305278293</v>
+        <v>36.38669305278296</v>
       </c>
       <c r="H13" t="n">
-        <v>28.85275705997699</v>
+        <v>28.85275705997702</v>
       </c>
       <c r="I13" t="n">
-        <v>17.32444553928519</v>
+        <v>17.32444553928521</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.82695699582463</v>
+        <v>35.82695699582465</v>
       </c>
       <c r="S13" t="n">
-        <v>88.72726177829107</v>
+        <v>88.72726177829109</v>
       </c>
       <c r="T13" t="n">
-        <v>95.60714817900747</v>
+        <v>95.6071481790075</v>
       </c>
       <c r="U13" t="n">
         <v>154.9268322567434</v>
@@ -1591,10 +1591,10 @@
         <v>155.1430371525702</v>
       </c>
       <c r="X13" t="n">
-        <v>94.32969420501632</v>
+        <v>94.32969420501635</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.20469216807396</v>
+        <v>87.20469216807399</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.3538804794597</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>250.550408888241</v>
       </c>
       <c r="F14" t="n">
-        <v>275.4960845576906</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>283.4226819530072</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>202.9732493819571</v>
+        <v>47.37851121665369</v>
       </c>
       <c r="I14" t="n">
-        <v>59.8160398744116</v>
+        <v>59.81603987441163</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.52672523994676</v>
+        <v>89.52672523994678</v>
       </c>
       <c r="U14" t="n">
-        <v>115.6788324062207</v>
+        <v>119.9256841735671</v>
       </c>
       <c r="V14" t="n">
         <v>196.3722972861141</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.8610075333922</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>238.3511394944482</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>254.8579774720328</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35.15322246584651</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>41.32853780429494</v>
       </c>
       <c r="D15" t="n">
-        <v>16.06510438061792</v>
+        <v>16.06510438061795</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>13.68925120936305</v>
+        <v>13.68925120936308</v>
       </c>
       <c r="G15" t="n">
-        <v>5.695981897545057</v>
+        <v>5.695981897545085</v>
       </c>
       <c r="H15" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>83.54476967999807</v>
       </c>
       <c r="S15" t="n">
-        <v>37.21004622350984</v>
+        <v>35.33313871031915</v>
       </c>
       <c r="T15" t="n">
         <v>199.0862173745079</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9237785229719</v>
+        <v>94.54381733895107</v>
       </c>
       <c r="V15" t="n">
-        <v>101.4206259654044</v>
+        <v>129.4040057202617</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>120.3150219768988</v>
       </c>
       <c r="X15" t="n">
-        <v>74.39302401945665</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>74.30273459328353</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.45201899791647</v>
+        <v>48.4520189979165</v>
       </c>
       <c r="C16" t="n">
-        <v>35.86685991460701</v>
+        <v>35.86685991460703</v>
       </c>
       <c r="D16" t="n">
-        <v>17.23551183419153</v>
+        <v>17.23551183419156</v>
       </c>
       <c r="E16" t="n">
-        <v>15.05400146254834</v>
+        <v>15.05400146254837</v>
       </c>
       <c r="F16" t="n">
-        <v>14.04108683891042</v>
+        <v>14.04108683891045</v>
       </c>
       <c r="G16" t="n">
-        <v>36.38669305278293</v>
+        <v>36.38669305278296</v>
       </c>
       <c r="H16" t="n">
-        <v>28.85275705997699</v>
+        <v>28.85275705997702</v>
       </c>
       <c r="I16" t="n">
-        <v>17.32444553928519</v>
+        <v>17.32444553928521</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.82695699582462</v>
+        <v>35.82695699582465</v>
       </c>
       <c r="S16" t="n">
-        <v>88.72726177829107</v>
+        <v>88.72726177829109</v>
       </c>
       <c r="T16" t="n">
-        <v>95.60714817900747</v>
+        <v>95.6071481790075</v>
       </c>
       <c r="U16" t="n">
         <v>154.9268322567434</v>
@@ -1828,10 +1828,10 @@
         <v>155.1430371525702</v>
       </c>
       <c r="X16" t="n">
-        <v>94.32969420501632</v>
+        <v>94.32969420501635</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.20469216807396</v>
+        <v>87.20469216807399</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.2104945573972</v>
+        <v>145.2104945573971</v>
       </c>
       <c r="C17" t="n">
-        <v>127.7495446649242</v>
+        <v>127.7495446649244</v>
       </c>
       <c r="D17" t="n">
         <v>117.1596945145995</v>
       </c>
       <c r="E17" t="n">
-        <v>144.4070229661784</v>
+        <v>144.4070229661783</v>
       </c>
       <c r="F17" t="n">
-        <v>169.3526986356281</v>
+        <v>169.352698635628</v>
       </c>
       <c r="G17" t="n">
-        <v>177.2792960309446</v>
+        <v>177.2792960309445</v>
       </c>
       <c r="H17" t="n">
-        <v>96.82986345989454</v>
+        <v>96.82986345989451</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.78229825150456</v>
+        <v>13.78229825150449</v>
       </c>
       <c r="V17" t="n">
-        <v>90.22891136405153</v>
+        <v>90.22891136405147</v>
       </c>
       <c r="W17" t="n">
         <v>111.7176216113296</v>
       </c>
       <c r="X17" t="n">
-        <v>132.2077535723857</v>
+        <v>132.2077535723856</v>
       </c>
       <c r="Y17" t="n">
         <v>148.7145915499702</v>
@@ -1935,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>83.54476967999807</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T18" t="n">
-        <v>186.2315777148414</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U18" t="n">
         <v>225.9237785229719</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>134.4165738929727</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>148.704406723306</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.78344633468087</v>
+        <v>48.78344633468082</v>
       </c>
       <c r="V19" t="n">
-        <v>14.61429621774462</v>
+        <v>194.9179674238975</v>
       </c>
       <c r="W19" t="n">
-        <v>48.99965123050762</v>
+        <v>48.99965123050757</v>
       </c>
       <c r="X19" t="n">
-        <v>31.59926448284671</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.2104945573972</v>
+        <v>145.2104945573971</v>
       </c>
       <c r="C20" t="n">
-        <v>127.7495446649242</v>
+        <v>127.7495446649241</v>
       </c>
       <c r="D20" t="n">
-        <v>117.1596945145996</v>
+        <v>117.1596945145995</v>
       </c>
       <c r="E20" t="n">
-        <v>144.4070229661784</v>
+        <v>144.4070229661783</v>
       </c>
       <c r="F20" t="n">
-        <v>169.3526986356281</v>
+        <v>169.352698635628</v>
       </c>
       <c r="G20" t="n">
-        <v>177.2792960309446</v>
+        <v>177.2792960309445</v>
       </c>
       <c r="H20" t="n">
-        <v>96.82986345989454</v>
+        <v>96.82986345989448</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.78229825150455</v>
+        <v>13.78229825150449</v>
       </c>
       <c r="V20" t="n">
-        <v>90.22891136405153</v>
+        <v>90.22891136405147</v>
       </c>
       <c r="W20" t="n">
         <v>111.7176216113296</v>
       </c>
       <c r="X20" t="n">
-        <v>132.2077535723857</v>
+        <v>132.2077535723856</v>
       </c>
       <c r="Y20" t="n">
         <v>148.7145915499702</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.54476967999807</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T21" t="n">
         <v>199.0862173745079</v>
@@ -2220,13 +2220,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>219.350114957984</v>
+        <v>14.17163605483617</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>2.958224650713505</v>
       </c>
     </row>
     <row r="22">
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.78344633468087</v>
+        <v>229.0871175408338</v>
       </c>
       <c r="V22" t="n">
-        <v>14.61429621774462</v>
+        <v>14.61429621774457</v>
       </c>
       <c r="W22" t="n">
-        <v>48.99965123050762</v>
+        <v>48.99965123050757</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>180.3036712061527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>145.2104945573972</v>
+        <v>145.2104945573971</v>
       </c>
       <c r="C23" t="n">
-        <v>127.7495446649242</v>
+        <v>127.7495446649241</v>
       </c>
       <c r="D23" t="n">
-        <v>117.1596945145996</v>
+        <v>117.1596945145995</v>
       </c>
       <c r="E23" t="n">
-        <v>144.4070229661784</v>
+        <v>144.4070229661783</v>
       </c>
       <c r="F23" t="n">
-        <v>169.3526986356281</v>
+        <v>169.352698635628</v>
       </c>
       <c r="G23" t="n">
-        <v>177.2792960309446</v>
+        <v>177.2792960309445</v>
       </c>
       <c r="H23" t="n">
-        <v>96.82986345989457</v>
+        <v>96.82986345989451</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.78229825150455</v>
+        <v>13.78229825150449</v>
       </c>
       <c r="V23" t="n">
-        <v>90.22891136405153</v>
+        <v>90.22891136405147</v>
       </c>
       <c r="W23" t="n">
         <v>111.7176216113296</v>
       </c>
       <c r="X23" t="n">
-        <v>132.2077535723857</v>
+        <v>132.2077535723856</v>
       </c>
       <c r="Y23" t="n">
         <v>148.7145915499702</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>32.59318609101166</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>12.43330869238611</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>83.54476967999807</v>
       </c>
       <c r="S24" t="n">
         <v>166.71309989434</v>
@@ -2454,16 +2454,16 @@
         <v>225.9237785229719</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>167.2069181798454</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.78344633468087</v>
+        <v>48.78344633468082</v>
       </c>
       <c r="V25" t="n">
-        <v>14.61429621774462</v>
+        <v>14.61429621774457</v>
       </c>
       <c r="W25" t="n">
-        <v>62.09640425681494</v>
+        <v>49.47134225472323</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>184.2285372589194</v>
       </c>
       <c r="I26" t="n">
-        <v>41.07132775137393</v>
+        <v>41.07132775137391</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2634,10 +2634,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>22.58382568125722</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>7.520407148342429</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>102.1297823912647</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.18410416320769</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,19 +2685,19 @@
         <v>166.71309989434</v>
       </c>
       <c r="T27" t="n">
-        <v>199.0862173745079</v>
+        <v>48.96154406744939</v>
       </c>
       <c r="U27" t="n">
         <v>225.9237785229719</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>227.1959767538645</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>55.64831189641896</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2874,22 +2874,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I30" t="n">
-        <v>80.18410416320769</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>2.811516034904312</v>
+        <v>83.54476967999807</v>
       </c>
       <c r="S30" t="n">
-        <v>16.58842658728144</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T30" t="n">
         <v>199.0862173745079</v>
       </c>
       <c r="U30" t="n">
-        <v>75.79910521591336</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V30" t="n">
         <v>82.67591384236675</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>133.759523101275</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>230.8301978021265</v>
+        <v>230.8301978021264</v>
       </c>
       <c r="C32" t="n">
-        <v>213.3692479096535</v>
+        <v>213.3692479096534</v>
       </c>
       <c r="D32" t="n">
-        <v>202.7793977593289</v>
+        <v>202.7793977593288</v>
       </c>
       <c r="E32" t="n">
-        <v>230.0267262109078</v>
+        <v>230.0267262109076</v>
       </c>
       <c r="F32" t="n">
-        <v>254.9724018803574</v>
+        <v>254.9724018803573</v>
       </c>
       <c r="G32" t="n">
-        <v>262.898999275674</v>
+        <v>262.8989992756739</v>
       </c>
       <c r="H32" t="n">
-        <v>182.4495667046239</v>
+        <v>182.4495667046238</v>
       </c>
       <c r="I32" t="n">
-        <v>39.29235719707842</v>
+        <v>39.2923571970783</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>45.72052508377607</v>
+        <v>45.72052508377595</v>
       </c>
       <c r="T32" t="n">
-        <v>69.00304256261356</v>
+        <v>69.00304256261344</v>
       </c>
       <c r="U32" t="n">
-        <v>99.40200149623391</v>
+        <v>99.40200149623379</v>
       </c>
       <c r="V32" t="n">
-        <v>175.8486146087809</v>
+        <v>175.8486146087808</v>
       </c>
       <c r="W32" t="n">
-        <v>197.337324856059</v>
+        <v>197.3373248560589</v>
       </c>
       <c r="X32" t="n">
-        <v>217.827456817115</v>
+        <v>217.8274568171149</v>
       </c>
       <c r="Y32" t="n">
-        <v>234.3342947946996</v>
+        <v>234.3342947946994</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14.62953978851331</v>
+        <v>14.6295397885132</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3114,13 +3114,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>5.741436594046803</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>81.49810039302859</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>14.80945603298593</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T33" t="n">
-        <v>47.18257351315388</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U33" t="n">
-        <v>177.1803673024044</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27.92833632058327</v>
+        <v>27.92833632058316</v>
       </c>
       <c r="C34" t="n">
-        <v>15.34317723727381</v>
+        <v>15.34317723727369</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>15.86301037544973</v>
+        <v>15.86301037544962</v>
       </c>
       <c r="H34" t="n">
-        <v>8.329074382643796</v>
+        <v>8.329074382643682</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15.30327431849143</v>
+        <v>15.30327431849131</v>
       </c>
       <c r="S34" t="n">
-        <v>68.20357910095787</v>
+        <v>68.20357910095775</v>
       </c>
       <c r="T34" t="n">
-        <v>75.08346550167427</v>
+        <v>75.08346550167416</v>
       </c>
       <c r="U34" t="n">
-        <v>134.4031495794102</v>
+        <v>134.4031495794101</v>
       </c>
       <c r="V34" t="n">
-        <v>100.233999462474</v>
+        <v>100.2339994624739</v>
       </c>
       <c r="W34" t="n">
-        <v>134.619354475237</v>
+        <v>134.6193544752369</v>
       </c>
       <c r="X34" t="n">
-        <v>73.80601152768313</v>
+        <v>73.80601152768301</v>
       </c>
       <c r="Y34" t="n">
-        <v>66.68100949074076</v>
+        <v>66.68100949074065</v>
       </c>
     </row>
     <row r="35">
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.6512419216643</v>
+        <v>51.70162922034355</v>
       </c>
       <c r="I36" t="n">
-        <v>80.18410416320769</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>83.54476967999807</v>
       </c>
       <c r="S36" t="n">
-        <v>23.37363448944852</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U36" t="n">
-        <v>5.01709209900429</v>
+        <v>225.9237785229719</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>11.89390072545768</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>119.5702972556751</v>
       </c>
       <c r="T37" t="n">
-        <v>6.080422939060716</v>
+        <v>6.080422939060715</v>
       </c>
       <c r="U37" t="n">
         <v>65.40010701679667</v>
@@ -3487,7 +3487,7 @@
         <v>65.61631191262342</v>
       </c>
       <c r="X37" t="n">
-        <v>124.3732662207447</v>
+        <v>4.802968965069567</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3582,25 +3582,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>91.69441352278224</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>109.6512419216643</v>
       </c>
       <c r="I39" t="n">
-        <v>80.18410416320769</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>83.54476967999807</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>225.9237785229719</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>11.89390072545768</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>159.7974986474787</v>
       </c>
     </row>
     <row r="40">
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.5702972556751</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.080422939060716</v>
+        <v>6.080422939060715</v>
       </c>
       <c r="U40" t="n">
-        <v>184.9704042724718</v>
+        <v>65.40010701679667</v>
       </c>
       <c r="V40" t="n">
         <v>31.23095689986042</v>
@@ -3740,22 +3740,22 @@
         <v>179.9546374739201</v>
       </c>
       <c r="C41" t="n">
-        <v>162.493687581447</v>
+        <v>162.4936875814471</v>
       </c>
       <c r="D41" t="n">
-        <v>151.9038374311224</v>
+        <v>151.9038374311225</v>
       </c>
       <c r="E41" t="n">
         <v>179.1511658827013</v>
       </c>
       <c r="F41" t="n">
-        <v>204.0968415521509</v>
+        <v>204.096841552151</v>
       </c>
       <c r="G41" t="n">
         <v>212.0234389474675</v>
       </c>
       <c r="H41" t="n">
-        <v>131.5740063764174</v>
+        <v>131.5740063764175</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>18.12748223440707</v>
+        <v>18.12748223440713</v>
       </c>
       <c r="U41" t="n">
-        <v>48.52644116802742</v>
+        <v>48.52644116802747</v>
       </c>
       <c r="V41" t="n">
         <v>124.9730542805744</v>
       </c>
       <c r="W41" t="n">
-        <v>146.4617645278525</v>
+        <v>146.4617645278526</v>
       </c>
       <c r="X41" t="n">
-        <v>166.9518964889085</v>
+        <v>166.9518964889086</v>
       </c>
       <c r="Y41" t="n">
         <v>183.4587344664931</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3828,16 +3828,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.18410416320769</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.71309989434</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U42" t="n">
         <v>225.9237785229719</v>
@@ -3879,13 +3879,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>65.0183517379902</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>123.9195091598809</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.32801877275137</v>
+        <v>17.32801877275143</v>
       </c>
       <c r="T43" t="n">
-        <v>24.20790517346778</v>
+        <v>24.20790517346784</v>
       </c>
       <c r="U43" t="n">
-        <v>83.52758925120374</v>
+        <v>83.52758925120379</v>
       </c>
       <c r="V43" t="n">
-        <v>49.35843913426748</v>
+        <v>49.35843913426754</v>
       </c>
       <c r="W43" t="n">
-        <v>83.74379414703048</v>
+        <v>83.74379414703054</v>
       </c>
       <c r="X43" t="n">
-        <v>22.93045119947664</v>
+        <v>22.93045119947669</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.80544916253427</v>
+        <v>15.80544916253433</v>
       </c>
     </row>
     <row r="44">
@@ -4056,25 +4056,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>100.6486870299368</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>80.18410416320769</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4107,13 +4107,13 @@
         <v>166.71309989434</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0862173745079</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9237785229719</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>30.02138295986475</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4122,7 +4122,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>186.0821885066131</v>
       </c>
     </row>
     <row r="46">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
@@ -4808,7 +4808,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M8" t="n">
         <v>7.082327113962777</v>
@@ -4823,31 +4823,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P9" t="n">
         <v>20.69689768255142</v>
@@ -4911,22 +4911,22 @@
         <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V9" t="n">
-        <v>15.19521781052957</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>15.19521781052957</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X9" t="n">
-        <v>15.19521781052957</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.19521781052957</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C10" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D10" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
         <v>0.5500836593369149</v>
@@ -4966,46 +4966,46 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M10" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S10" t="n">
-        <v>24.75525293138463</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T10" t="n">
-        <v>24.75525293138463</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>835.2091613267783</v>
+        <v>70.95107207538521</v>
       </c>
       <c r="C11" t="n">
-        <v>835.2091613267783</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="D11" t="n">
-        <v>835.2091613267783</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="E11" t="n">
-        <v>582.1279402275454</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="F11" t="n">
-        <v>582.1279402275454</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="G11" t="n">
-        <v>295.8424029012755</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="H11" t="n">
-        <v>90.81891867707637</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I11" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J11" t="n">
-        <v>60.58931629025233</v>
+        <v>60.58931629025228</v>
       </c>
       <c r="K11" t="n">
-        <v>226.5820636478227</v>
+        <v>226.5820636478226</v>
       </c>
       <c r="L11" t="n">
-        <v>484.7873723698841</v>
+        <v>484.787372369884</v>
       </c>
       <c r="M11" t="n">
-        <v>788.6970746328863</v>
+        <v>788.6970746328861</v>
       </c>
       <c r="N11" t="n">
         <v>1082.892356060502</v>
@@ -5066,25 +5066,25 @@
         <v>1519.933818984547</v>
       </c>
       <c r="S11" t="n">
-        <v>1453.020477811709</v>
+        <v>1453.02047781171</v>
       </c>
       <c r="T11" t="n">
         <v>1362.589442215804</v>
       </c>
       <c r="U11" t="n">
-        <v>1290.997317648139</v>
+        <v>1241.452387495029</v>
       </c>
       <c r="V11" t="n">
-        <v>1092.641461803579</v>
+        <v>1043.096531650469</v>
       </c>
       <c r="W11" t="n">
-        <v>1092.641461803579</v>
+        <v>823.0349078793657</v>
       </c>
       <c r="X11" t="n">
-        <v>1092.641461803579</v>
+        <v>582.2761811172968</v>
       </c>
       <c r="Y11" t="n">
-        <v>835.2091613267783</v>
+        <v>324.843880640496</v>
       </c>
     </row>
     <row r="12">
@@ -5094,31 +5094,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>399.8975823708452</v>
+        <v>134.4835193728235</v>
       </c>
       <c r="C12" t="n">
-        <v>225.4445530897182</v>
+        <v>92.73752159070737</v>
       </c>
       <c r="D12" t="n">
-        <v>209.2171749274779</v>
+        <v>76.51014342846702</v>
       </c>
       <c r="E12" t="n">
-        <v>49.97971992202236</v>
+        <v>49.97971992202243</v>
       </c>
       <c r="F12" t="n">
-        <v>36.15219344791827</v>
+        <v>36.15219344791831</v>
       </c>
       <c r="G12" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="H12" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I12" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J12" t="n">
-        <v>54.68663500082923</v>
+        <v>54.68663500082924</v>
       </c>
       <c r="K12" t="n">
         <v>222.8194679282964</v>
@@ -5130,7 +5130,7 @@
         <v>886.4828271650802</v>
       </c>
       <c r="N12" t="n">
-        <v>1183.497777268176</v>
+        <v>886.4828271650802</v>
       </c>
       <c r="O12" t="n">
         <v>1183.497777268176</v>
@@ -5142,28 +5142,28 @@
         <v>1519.933818984547</v>
       </c>
       <c r="R12" t="n">
-        <v>1435.545162742125</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="S12" t="n">
-        <v>1267.148092141781</v>
+        <v>1351.536748384204</v>
       </c>
       <c r="T12" t="n">
-        <v>1066.050902874602</v>
+        <v>1150.439559117024</v>
       </c>
       <c r="U12" t="n">
-        <v>970.5520974817221</v>
+        <v>1054.940753724144</v>
       </c>
       <c r="V12" t="n">
-        <v>735.3999892499794</v>
+        <v>819.7886454924017</v>
       </c>
       <c r="W12" t="n">
-        <v>585.603623864367</v>
+        <v>585.6036238643674</v>
       </c>
       <c r="X12" t="n">
-        <v>510.4591551578452</v>
+        <v>377.7521236588345</v>
       </c>
       <c r="Y12" t="n">
-        <v>435.4058878919022</v>
+        <v>169.9918248938806</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>196.8242882001985</v>
+        <v>196.8242882001986</v>
       </c>
       <c r="C13" t="n">
-        <v>160.5951367713025</v>
+        <v>160.5951367713026</v>
       </c>
       <c r="D13" t="n">
-        <v>143.1855288579777</v>
+        <v>143.1855288579778</v>
       </c>
       <c r="E13" t="n">
-        <v>127.9794667745955</v>
+        <v>127.9794667745957</v>
       </c>
       <c r="F13" t="n">
-        <v>113.7965507756961</v>
+        <v>113.7965507756962</v>
       </c>
       <c r="G13" t="n">
-        <v>77.04231536884467</v>
+        <v>77.04231536884473</v>
       </c>
       <c r="H13" t="n">
-        <v>47.89811631836285</v>
+        <v>47.89811631836288</v>
       </c>
       <c r="I13" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J13" t="n">
-        <v>83.74043787636411</v>
+        <v>83.7404378763641</v>
       </c>
       <c r="K13" t="n">
         <v>217.5616780336791</v>
       </c>
       <c r="L13" t="n">
-        <v>407.959481969486</v>
+        <v>401.5668805346544</v>
       </c>
       <c r="M13" t="n">
-        <v>612.0260243881637</v>
+        <v>605.6334229533321</v>
       </c>
       <c r="N13" t="n">
-        <v>819.7676195711485</v>
+        <v>683.3088565641364</v>
       </c>
       <c r="O13" t="n">
-        <v>999.1707192668244</v>
+        <v>869.1045576946441</v>
       </c>
       <c r="P13" t="n">
-        <v>1023.336285705552</v>
+        <v>1023.336285705553</v>
       </c>
       <c r="Q13" t="n">
         <v>1086.698352718634</v>
@@ -5224,25 +5224,25 @@
         <v>1050.509507268306</v>
       </c>
       <c r="S13" t="n">
-        <v>960.8860105225571</v>
+        <v>960.8860105225574</v>
       </c>
       <c r="T13" t="n">
-        <v>864.3131335740646</v>
+        <v>864.313133574065</v>
       </c>
       <c r="U13" t="n">
-        <v>707.8213838197784</v>
+        <v>707.8213838197787</v>
       </c>
       <c r="V13" t="n">
-        <v>585.8439271129024</v>
+        <v>585.8439271129027</v>
       </c>
       <c r="W13" t="n">
-        <v>429.1337885749527</v>
+        <v>429.133788574953</v>
       </c>
       <c r="X13" t="n">
-        <v>333.8512691759464</v>
+        <v>333.8512691759466</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.7657215314272</v>
+        <v>245.7657215314274</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>860.4068135181418</v>
+        <v>391.757221813334</v>
       </c>
       <c r="C14" t="n">
-        <v>860.4068135181418</v>
+        <v>391.757221813334</v>
       </c>
       <c r="D14" t="n">
-        <v>860.4068135181418</v>
+        <v>391.757221813334</v>
       </c>
       <c r="E14" t="n">
-        <v>860.4068135181418</v>
+        <v>138.6760007141004</v>
       </c>
       <c r="F14" t="n">
-        <v>582.1279402275452</v>
+        <v>138.6760007141004</v>
       </c>
       <c r="G14" t="n">
-        <v>295.8424029012754</v>
+        <v>138.6760007141004</v>
       </c>
       <c r="H14" t="n">
-        <v>90.81891867707641</v>
+        <v>90.81891867707643</v>
       </c>
       <c r="I14" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J14" t="n">
-        <v>60.58931629025227</v>
+        <v>60.58931629025228</v>
       </c>
       <c r="K14" t="n">
         <v>226.5820636478226</v>
       </c>
       <c r="L14" t="n">
-        <v>484.787372369884</v>
+        <v>484.7873723698839</v>
       </c>
       <c r="M14" t="n">
         <v>788.6970746328861</v>
@@ -5306,22 +5306,22 @@
         <v>1519.933818984547</v>
       </c>
       <c r="T14" t="n">
-        <v>1429.502783388641</v>
+        <v>1429.502783388642</v>
       </c>
       <c r="U14" t="n">
-        <v>1312.655477927812</v>
+        <v>1308.365728667867</v>
       </c>
       <c r="V14" t="n">
-        <v>1114.299622083253</v>
+        <v>1110.009872823307</v>
       </c>
       <c r="W14" t="n">
-        <v>1114.299622083253</v>
+        <v>889.9482490522038</v>
       </c>
       <c r="X14" t="n">
-        <v>1114.299622083253</v>
+        <v>649.1895222901348</v>
       </c>
       <c r="Y14" t="n">
-        <v>1114.299622083253</v>
+        <v>391.757221813334</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>510.6564125947485</v>
+        <v>267.1905508718344</v>
       </c>
       <c r="C15" t="n">
-        <v>336.2033833136215</v>
+        <v>225.4445530897183</v>
       </c>
       <c r="D15" t="n">
-        <v>319.9760051513812</v>
+        <v>209.2171749274779</v>
       </c>
       <c r="E15" t="n">
-        <v>160.7385501459257</v>
+        <v>49.97971992202243</v>
       </c>
       <c r="F15" t="n">
-        <v>146.9110236718216</v>
+        <v>36.15219344791831</v>
       </c>
       <c r="G15" t="n">
-        <v>141.1575066035943</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="H15" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I15" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J15" t="n">
-        <v>30.39867637969094</v>
+        <v>54.68663500082924</v>
       </c>
       <c r="K15" t="n">
-        <v>198.5315093071582</v>
+        <v>222.8194679282964</v>
       </c>
       <c r="L15" t="n">
-        <v>486.0112483452665</v>
+        <v>510.2992069664048</v>
       </c>
       <c r="M15" t="n">
-        <v>807.3141570695008</v>
+        <v>510.2992069664048</v>
       </c>
       <c r="N15" t="n">
-        <v>1183.497777268176</v>
+        <v>886.4828271650802</v>
       </c>
       <c r="O15" t="n">
-        <v>1183.497777268176</v>
+        <v>1198.262295174099</v>
       </c>
       <c r="P15" t="n">
         <v>1416.725219631451</v>
@@ -5379,28 +5379,28 @@
         <v>1519.933818984547</v>
       </c>
       <c r="R15" t="n">
-        <v>1519.933818984547</v>
+        <v>1435.545162742125</v>
       </c>
       <c r="S15" t="n">
-        <v>1482.347913708275</v>
+        <v>1399.855123640792</v>
       </c>
       <c r="T15" t="n">
-        <v>1281.250724441095</v>
+        <v>1198.757934373613</v>
       </c>
       <c r="U15" t="n">
-        <v>1053.044887549204</v>
+        <v>1103.259128980733</v>
       </c>
       <c r="V15" t="n">
-        <v>950.599810816472</v>
+        <v>972.5480120915798</v>
       </c>
       <c r="W15" t="n">
-        <v>696.3624540882704</v>
+        <v>851.0176868623892</v>
       </c>
       <c r="X15" t="n">
-        <v>621.2179853817486</v>
+        <v>643.1661866568563</v>
       </c>
       <c r="Y15" t="n">
-        <v>546.1647181158056</v>
+        <v>435.4058878919024</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>196.8242882001985</v>
+        <v>196.8242882001986</v>
       </c>
       <c r="C16" t="n">
-        <v>160.5951367713025</v>
+        <v>160.5951367713026</v>
       </c>
       <c r="D16" t="n">
-        <v>143.1855288579777</v>
+        <v>143.1855288579778</v>
       </c>
       <c r="E16" t="n">
-        <v>127.9794667745955</v>
+        <v>127.9794667745957</v>
       </c>
       <c r="F16" t="n">
-        <v>113.7965507756961</v>
+        <v>113.7965507756962</v>
       </c>
       <c r="G16" t="n">
-        <v>77.04231536884467</v>
+        <v>77.04231536884473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.89811631836285</v>
+        <v>47.89811631836288</v>
       </c>
       <c r="I16" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J16" t="n">
-        <v>83.74043787636413</v>
+        <v>83.7404378763641</v>
       </c>
       <c r="K16" t="n">
-        <v>217.5616780336792</v>
+        <v>217.5616780336791</v>
       </c>
       <c r="L16" t="n">
-        <v>401.5668805346539</v>
+        <v>277.8933203973053</v>
       </c>
       <c r="M16" t="n">
-        <v>475.567261381151</v>
+        <v>481.959862815983</v>
       </c>
       <c r="N16" t="n">
-        <v>683.3088565641359</v>
+        <v>689.7014579989678</v>
       </c>
       <c r="O16" t="n">
-        <v>869.1045576946436</v>
+        <v>875.4971591294756</v>
       </c>
       <c r="P16" t="n">
-        <v>1023.336285705552</v>
+        <v>1023.336285705553</v>
       </c>
       <c r="Q16" t="n">
-        <v>1086.698352718633</v>
+        <v>1086.698352718634</v>
       </c>
       <c r="R16" t="n">
         <v>1050.509507268306</v>
       </c>
       <c r="S16" t="n">
-        <v>960.8860105225571</v>
+        <v>960.8860105225574</v>
       </c>
       <c r="T16" t="n">
-        <v>864.3131335740646</v>
+        <v>864.313133574065</v>
       </c>
       <c r="U16" t="n">
-        <v>707.8213838197784</v>
+        <v>707.8213838197787</v>
       </c>
       <c r="V16" t="n">
-        <v>585.8439271129024</v>
+        <v>585.8439271129027</v>
       </c>
       <c r="W16" t="n">
-        <v>429.1337885749527</v>
+        <v>429.133788574953</v>
       </c>
       <c r="X16" t="n">
-        <v>333.8512691759464</v>
+        <v>333.8512691759466</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.7657215314272</v>
+        <v>245.7657215314274</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>871.588696856629</v>
+        <v>871.5886968566299</v>
       </c>
       <c r="C17" t="n">
-        <v>742.5487527506449</v>
+        <v>742.5487527506453</v>
       </c>
       <c r="D17" t="n">
-        <v>624.2056269783228</v>
+        <v>624.2056269783226</v>
       </c>
       <c r="E17" t="n">
-        <v>478.3399472145063</v>
+        <v>478.3399472145061</v>
       </c>
       <c r="F17" t="n">
-        <v>307.2766152593264</v>
+        <v>307.2766152593263</v>
       </c>
       <c r="G17" t="n">
         <v>128.2066192684733</v>
       </c>
       <c r="H17" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I17" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J17" t="n">
-        <v>60.58931629025233</v>
+        <v>60.58931629025221</v>
       </c>
       <c r="K17" t="n">
-        <v>226.5820636478227</v>
+        <v>226.5820636478226</v>
       </c>
       <c r="L17" t="n">
-        <v>484.7873723698841</v>
+        <v>484.787372369884</v>
       </c>
       <c r="M17" t="n">
         <v>788.6970746328863</v>
@@ -5552,13 +5552,13 @@
         <v>1414.871991090046</v>
       </c>
       <c r="W17" t="n">
-        <v>1302.025908654359</v>
+        <v>1302.02590865436</v>
       </c>
       <c r="X17" t="n">
-        <v>1168.482723227707</v>
+        <v>1168.482723227708</v>
       </c>
       <c r="Y17" t="n">
-        <v>1018.265964086323</v>
+        <v>1018.265964086324</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.39867637969094</v>
+        <v>279.6180551708326</v>
       </c>
       <c r="C18" t="n">
-        <v>30.39867637969094</v>
+        <v>279.6180551708326</v>
       </c>
       <c r="D18" t="n">
-        <v>30.39867637969094</v>
+        <v>279.6180551708326</v>
       </c>
       <c r="E18" t="n">
-        <v>30.39867637969094</v>
+        <v>279.6180551708326</v>
       </c>
       <c r="F18" t="n">
-        <v>30.39867637969094</v>
+        <v>279.6180551708326</v>
       </c>
       <c r="G18" t="n">
-        <v>30.39867637969094</v>
+        <v>141.1575066035943</v>
       </c>
       <c r="H18" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I18" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J18" t="n">
-        <v>30.39867637969094</v>
+        <v>54.68663500082924</v>
       </c>
       <c r="K18" t="n">
-        <v>198.5315093071582</v>
+        <v>119.3510688618068</v>
       </c>
       <c r="L18" t="n">
-        <v>455.7871105781776</v>
+        <v>119.3510688618068</v>
       </c>
       <c r="M18" t="n">
-        <v>831.970730776853</v>
+        <v>495.5346890604822</v>
       </c>
       <c r="N18" t="n">
-        <v>1208.154350975528</v>
+        <v>871.7183092591576</v>
       </c>
       <c r="O18" t="n">
-        <v>1519.933818984547</v>
+        <v>1183.497777268176</v>
       </c>
       <c r="P18" t="n">
-        <v>1519.933818984547</v>
+        <v>1416.725219631451</v>
       </c>
       <c r="Q18" t="n">
         <v>1519.933818984547</v>
       </c>
       <c r="R18" t="n">
-        <v>1519.933818984547</v>
+        <v>1435.545162742125</v>
       </c>
       <c r="S18" t="n">
-        <v>1519.933818984547</v>
+        <v>1267.148092141782</v>
       </c>
       <c r="T18" t="n">
-        <v>1331.821114222081</v>
+        <v>1066.050902874602</v>
       </c>
       <c r="U18" t="n">
-        <v>1103.61527733019</v>
+        <v>837.845065982711</v>
       </c>
       <c r="V18" t="n">
-        <v>868.4631690984475</v>
+        <v>702.0707489191022</v>
       </c>
       <c r="W18" t="n">
-        <v>614.2258123702458</v>
+        <v>447.8333921909006</v>
       </c>
       <c r="X18" t="n">
-        <v>406.3743121647129</v>
+        <v>447.8333921909006</v>
       </c>
       <c r="Y18" t="n">
-        <v>198.614013399759</v>
+        <v>447.8333921909006</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.6051478173738</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="C19" t="n">
-        <v>180.6051478173738</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="D19" t="n">
-        <v>180.6051478173738</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="E19" t="n">
-        <v>180.6051478173738</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="F19" t="n">
-        <v>180.6051478173738</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="G19" t="n">
-        <v>180.6051478173738</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="H19" t="n">
-        <v>180.6051478173738</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I19" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J19" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="K19" t="n">
-        <v>34.15375496482533</v>
+        <v>34.15375496482534</v>
       </c>
       <c r="L19" t="n">
-        <v>94.48539732845155</v>
+        <v>94.48539732845157</v>
       </c>
       <c r="M19" t="n">
-        <v>168.4857781749486</v>
+        <v>168.4857781749487</v>
       </c>
       <c r="N19" t="n">
-        <v>246.1612117857529</v>
+        <v>246.161211785753</v>
       </c>
       <c r="O19" t="n">
         <v>301.8907513440801</v>
       </c>
       <c r="P19" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="Q19" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="R19" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="S19" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="T19" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="U19" t="n">
-        <v>276.7801093639384</v>
+        <v>276.7801093639385</v>
       </c>
       <c r="V19" t="n">
-        <v>262.0181939924792</v>
+        <v>79.89327358222386</v>
       </c>
       <c r="W19" t="n">
-        <v>212.5235967899463</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="X19" t="n">
-        <v>180.6051478173738</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="Y19" t="n">
-        <v>180.6051478173738</v>
+        <v>30.39867637969095</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>871.5886968566289</v>
+        <v>871.5886968566297</v>
       </c>
       <c r="C20" t="n">
-        <v>742.548752750645</v>
+        <v>742.5487527506457</v>
       </c>
       <c r="D20" t="n">
-        <v>624.2056269783222</v>
+        <v>624.2056269783229</v>
       </c>
       <c r="E20" t="n">
-        <v>478.3399472145059</v>
+        <v>478.3399472145064</v>
       </c>
       <c r="F20" t="n">
-        <v>307.276615259326</v>
+        <v>307.2766152593266</v>
       </c>
       <c r="G20" t="n">
-        <v>128.2066192684733</v>
+        <v>128.2066192684732</v>
       </c>
       <c r="H20" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I20" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J20" t="n">
-        <v>60.58931629025227</v>
+        <v>60.58931629025221</v>
       </c>
       <c r="K20" t="n">
         <v>226.5820636478226</v>
       </c>
       <c r="L20" t="n">
-        <v>484.787372369884</v>
+        <v>484.7873723698839</v>
       </c>
       <c r="M20" t="n">
         <v>788.6970746328861</v>
@@ -5789,13 +5789,13 @@
         <v>1414.871991090046</v>
       </c>
       <c r="W20" t="n">
-        <v>1302.025908654359</v>
+        <v>1302.02590865436</v>
       </c>
       <c r="X20" t="n">
-        <v>1168.482723227707</v>
+        <v>1168.482723227708</v>
       </c>
       <c r="Y20" t="n">
-        <v>1018.265964086323</v>
+        <v>1018.265964086324</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5805,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>426.1526131439476</v>
+        <v>585.3900681494031</v>
       </c>
       <c r="C21" t="n">
-        <v>426.1526131439476</v>
+        <v>585.3900681494031</v>
       </c>
       <c r="D21" t="n">
-        <v>426.1526131439476</v>
+        <v>585.3900681494031</v>
       </c>
       <c r="E21" t="n">
         <v>426.1526131439476</v>
@@ -5823,13 +5823,13 @@
         <v>141.1575066035943</v>
       </c>
       <c r="H21" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I21" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J21" t="n">
-        <v>54.68663500082923</v>
+        <v>54.68663500082924</v>
       </c>
       <c r="K21" t="n">
         <v>222.8194679282964</v>
@@ -5841,40 +5841,40 @@
         <v>886.4828271650802</v>
       </c>
       <c r="N21" t="n">
-        <v>886.4828271650802</v>
+        <v>1262.666447363756</v>
       </c>
       <c r="O21" t="n">
-        <v>1198.262295174099</v>
+        <v>1416.725219631451</v>
       </c>
       <c r="P21" t="n">
-        <v>1431.489737537373</v>
+        <v>1416.725219631451</v>
       </c>
       <c r="Q21" t="n">
         <v>1519.933818984547</v>
       </c>
       <c r="R21" t="n">
-        <v>1519.933818984547</v>
+        <v>1435.545162742125</v>
       </c>
       <c r="S21" t="n">
-        <v>1519.933818984547</v>
+        <v>1267.148092141782</v>
       </c>
       <c r="T21" t="n">
-        <v>1318.836629717367</v>
+        <v>1066.050902874602</v>
       </c>
       <c r="U21" t="n">
-        <v>1090.630792825477</v>
+        <v>837.845065982711</v>
       </c>
       <c r="V21" t="n">
-        <v>855.478684593734</v>
+        <v>602.6929577509684</v>
       </c>
       <c r="W21" t="n">
-        <v>633.9129119089016</v>
+        <v>588.3781738571945</v>
       </c>
       <c r="X21" t="n">
-        <v>633.9129119089016</v>
+        <v>588.3781738571945</v>
       </c>
       <c r="Y21" t="n">
-        <v>426.1526131439476</v>
+        <v>585.3900681494031</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="C22" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="D22" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="E22" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="F22" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="G22" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="H22" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I22" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J22" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="K22" t="n">
-        <v>34.15375496482533</v>
+        <v>34.15375496482534</v>
       </c>
       <c r="L22" t="n">
-        <v>94.48539732845155</v>
+        <v>94.48539732845157</v>
       </c>
       <c r="M22" t="n">
-        <v>168.4857781749486</v>
+        <v>168.4857781749487</v>
       </c>
       <c r="N22" t="n">
-        <v>246.1612117857529</v>
+        <v>246.161211785753</v>
       </c>
       <c r="O22" t="n">
         <v>301.8907513440801</v>
       </c>
       <c r="P22" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="Q22" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="R22" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="S22" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="T22" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="U22" t="n">
-        <v>276.7801093639384</v>
+        <v>94.65518895368301</v>
       </c>
       <c r="V22" t="n">
-        <v>262.0181939924792</v>
+        <v>79.89327358222386</v>
       </c>
       <c r="W22" t="n">
-        <v>212.5235967899463</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="X22" t="n">
-        <v>212.5235967899463</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>871.5886968566297</v>
+        <v>871.5886968566294</v>
       </c>
       <c r="C23" t="n">
-        <v>742.5487527506457</v>
+        <v>742.5487527506455</v>
       </c>
       <c r="D23" t="n">
-        <v>624.2056269783229</v>
+        <v>624.2056269783227</v>
       </c>
       <c r="E23" t="n">
-        <v>478.3399472145064</v>
+        <v>478.3399472145062</v>
       </c>
       <c r="F23" t="n">
-        <v>307.2766152593265</v>
+        <v>307.2766152593264</v>
       </c>
       <c r="G23" t="n">
         <v>128.2066192684733</v>
       </c>
       <c r="H23" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I23" t="n">
-        <v>30.39867637969111</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J23" t="n">
-        <v>60.58931629025244</v>
+        <v>60.58931629025228</v>
       </c>
       <c r="K23" t="n">
-        <v>226.5820636478228</v>
+        <v>226.5820636478226</v>
       </c>
       <c r="L23" t="n">
-        <v>484.7873723698842</v>
+        <v>484.787372369884</v>
       </c>
       <c r="M23" t="n">
-        <v>788.6970746328864</v>
+        <v>788.6970746328861</v>
       </c>
       <c r="N23" t="n">
-        <v>1082.892356060503</v>
+        <v>1082.892356060502</v>
       </c>
       <c r="O23" t="n">
         <v>1315.504980085948</v>
@@ -6008,22 +6008,22 @@
         <v>1476.360090100873</v>
       </c>
       <c r="Q23" t="n">
-        <v>1519.933818984548</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="R23" t="n">
-        <v>1519.933818984548</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="S23" t="n">
-        <v>1519.933818984548</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="T23" t="n">
-        <v>1519.933818984548</v>
+        <v>1519.933818984547</v>
       </c>
       <c r="U23" t="n">
         <v>1506.012305599189</v>
       </c>
       <c r="V23" t="n">
-        <v>1414.871991090047</v>
+        <v>1414.871991090046</v>
       </c>
       <c r="W23" t="n">
         <v>1302.02590865436</v>
@@ -6032,7 +6032,7 @@
         <v>1168.482723227708</v>
       </c>
       <c r="Y23" t="n">
-        <v>1018.265964086324</v>
+        <v>1018.265964086323</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>633.9414465323687</v>
+        <v>336.1706893582615</v>
       </c>
       <c r="C24" t="n">
-        <v>459.4884172512417</v>
+        <v>336.1706893582615</v>
       </c>
       <c r="D24" t="n">
-        <v>446.9295195821648</v>
+        <v>336.1706893582615</v>
       </c>
       <c r="E24" t="n">
-        <v>287.6920645767093</v>
+        <v>176.933234352806</v>
       </c>
       <c r="F24" t="n">
-        <v>141.1575066035943</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="G24" t="n">
-        <v>141.1575066035943</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="H24" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I24" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J24" t="n">
-        <v>30.39867637969094</v>
+        <v>54.68663500082924</v>
       </c>
       <c r="K24" t="n">
-        <v>198.5315093071582</v>
+        <v>222.8194679282964</v>
       </c>
       <c r="L24" t="n">
-        <v>486.0112483452665</v>
+        <v>510.2992069664048</v>
       </c>
       <c r="M24" t="n">
-        <v>495.534689060482</v>
+        <v>886.4828271650802</v>
       </c>
       <c r="N24" t="n">
-        <v>871.7183092591574</v>
+        <v>886.4828271650802</v>
       </c>
       <c r="O24" t="n">
         <v>1183.497777268176</v>
@@ -6090,28 +6090,28 @@
         <v>1519.933818984547</v>
       </c>
       <c r="R24" t="n">
-        <v>1519.933818984547</v>
+        <v>1435.545162742125</v>
       </c>
       <c r="S24" t="n">
-        <v>1351.536748384204</v>
+        <v>1267.148092141782</v>
       </c>
       <c r="T24" t="n">
-        <v>1351.536748384204</v>
+        <v>1267.148092141782</v>
       </c>
       <c r="U24" t="n">
-        <v>1123.330911492313</v>
+        <v>1038.942255249891</v>
       </c>
       <c r="V24" t="n">
-        <v>888.1788032605702</v>
+        <v>1038.942255249891</v>
       </c>
       <c r="W24" t="n">
-        <v>633.9414465323687</v>
+        <v>784.7048985216893</v>
       </c>
       <c r="X24" t="n">
-        <v>633.9414465323687</v>
+        <v>576.8533983161565</v>
       </c>
       <c r="Y24" t="n">
-        <v>633.9414465323687</v>
+        <v>369.0930995512026</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="C25" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="D25" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="E25" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="F25" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="G25" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="H25" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="I25" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="J25" t="n">
-        <v>30.39867637969094</v>
+        <v>30.39867637969095</v>
       </c>
       <c r="K25" t="n">
-        <v>34.15375496482533</v>
+        <v>34.15375496482534</v>
       </c>
       <c r="L25" t="n">
-        <v>94.48539732845155</v>
+        <v>94.48539732845157</v>
       </c>
       <c r="M25" t="n">
-        <v>168.4857781749486</v>
+        <v>168.4857781749487</v>
       </c>
       <c r="N25" t="n">
-        <v>246.1612117857529</v>
+        <v>246.161211785753</v>
       </c>
       <c r="O25" t="n">
         <v>301.8907513440801</v>
       </c>
       <c r="P25" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="Q25" t="n">
-        <v>326.056317782808</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="R25" t="n">
-        <v>157.1604408334692</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="S25" t="n">
-        <v>157.1604408334692</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="T25" t="n">
-        <v>157.1604408334692</v>
+        <v>326.0563177828081</v>
       </c>
       <c r="U25" t="n">
-        <v>107.8842324145996</v>
+        <v>276.7801093639385</v>
       </c>
       <c r="V25" t="n">
-        <v>93.12231704314038</v>
+        <v>262.0181939924794</v>
       </c>
       <c r="W25" t="n">
-        <v>30.39867637969094</v>
+        <v>212.0471412099307</v>
       </c>
       <c r="X25" t="n">
-        <v>30.39867637969094</v>
+        <v>212.0471412099307</v>
       </c>
       <c r="Y25" t="n">
-        <v>30.39867637969094</v>
+        <v>212.0471412099307</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>1467.668723218726</v>
       </c>
       <c r="C26" t="n">
-        <v>1250.347290426859</v>
+        <v>1250.347290426858</v>
       </c>
       <c r="D26" t="n">
         <v>1043.722675968652</v>
       </c>
       <c r="E26" t="n">
-        <v>809.5755075189519</v>
+        <v>809.5755075189514</v>
       </c>
       <c r="F26" t="n">
-        <v>550.2306868778883</v>
+        <v>550.2306868778878</v>
       </c>
       <c r="G26" t="n">
-        <v>282.8792022011514</v>
+        <v>282.879202201151</v>
       </c>
       <c r="H26" t="n">
-        <v>96.78977062648494</v>
+        <v>96.78977062648492</v>
       </c>
       <c r="I26" t="n">
         <v>55.30358097863248</v>
@@ -6227,7 +6227,7 @@
         <v>234.1176474631817</v>
       </c>
       <c r="K26" t="n">
-        <v>548.7338213947399</v>
+        <v>548.7338213947401</v>
       </c>
       <c r="L26" t="n">
         <v>955.5625566907893</v>
@@ -6239,7 +6239,7 @@
         <v>1850.914393529384</v>
       </c>
       <c r="O26" t="n">
-        <v>2232.150444128818</v>
+        <v>2232.150444128817</v>
       </c>
       <c r="P26" t="n">
         <v>2541.62898071773</v>
@@ -6257,19 +6257,19 @@
         <v>2645.702777461946</v>
       </c>
       <c r="U26" t="n">
-        <v>2543.499775390705</v>
+        <v>2543.499775390704</v>
       </c>
       <c r="V26" t="n">
-        <v>2364.077972195678</v>
+        <v>2364.077972195677</v>
       </c>
       <c r="W26" t="n">
-        <v>2162.950401074108</v>
+        <v>2162.950401074107</v>
       </c>
       <c r="X26" t="n">
-        <v>1941.125726961572</v>
+        <v>1941.125726961571</v>
       </c>
       <c r="Y26" t="n">
-        <v>1702.627479134304</v>
+        <v>1702.627479134303</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>380.6261681561439</v>
+        <v>386.2873907779223</v>
       </c>
       <c r="C27" t="n">
-        <v>357.8142230235609</v>
+        <v>211.8343614967953</v>
       </c>
       <c r="D27" t="n">
-        <v>357.8142230235609</v>
+        <v>62.89995183554403</v>
       </c>
       <c r="E27" t="n">
-        <v>350.2178521666493</v>
+        <v>55.30358097863248</v>
       </c>
       <c r="F27" t="n">
-        <v>350.2178521666493</v>
+        <v>55.30358097863248</v>
       </c>
       <c r="G27" t="n">
-        <v>247.0564558118365</v>
+        <v>55.30358097863248</v>
       </c>
       <c r="H27" t="n">
-        <v>136.2976255879332</v>
+        <v>55.30358097863248</v>
       </c>
       <c r="I27" t="n">
         <v>55.30358097863248</v>
@@ -6333,22 +6333,22 @@
         <v>1731.504711117169</v>
       </c>
       <c r="T27" t="n">
-        <v>1530.40752184999</v>
+        <v>1682.048605998534</v>
       </c>
       <c r="U27" t="n">
-        <v>1302.201684958099</v>
+        <v>1453.842769106643</v>
       </c>
       <c r="V27" t="n">
-        <v>1067.049576726356</v>
+        <v>1224.351883496679</v>
       </c>
       <c r="W27" t="n">
-        <v>812.8122199981547</v>
+        <v>970.1145267684769</v>
       </c>
       <c r="X27" t="n">
-        <v>756.6018039411658</v>
+        <v>762.2630265629441</v>
       </c>
       <c r="Y27" t="n">
-        <v>548.841505176212</v>
+        <v>554.5027277979902</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.6290089162626</v>
+        <v>90.82450804513451</v>
       </c>
       <c r="C28" t="n">
-        <v>83.3339101368997</v>
+        <v>73.52940926577156</v>
       </c>
       <c r="D28" t="n">
-        <v>83.3339101368997</v>
+        <v>75.02351755172926</v>
       </c>
       <c r="E28" t="n">
-        <v>83.3339101368997</v>
+        <v>78.6773211056137</v>
       </c>
       <c r="F28" t="n">
         <v>83.3339101368997</v>
@@ -6382,52 +6382,52 @@
         <v>55.30358097863248</v>
       </c>
       <c r="J28" t="n">
-        <v>127.202607477113</v>
+        <v>55.30358097863248</v>
       </c>
       <c r="K28" t="n">
-        <v>279.5811126362353</v>
+        <v>72.51925617782587</v>
       </c>
       <c r="L28" t="n">
-        <v>357.9829205456676</v>
+        <v>281.47432511544</v>
       </c>
       <c r="M28" t="n">
-        <v>580.6067279661527</v>
+        <v>355.4747059619371</v>
       </c>
       <c r="N28" t="n">
-        <v>658.2821615769569</v>
+        <v>581.7735661467293</v>
       </c>
       <c r="O28" t="n">
-        <v>714.0117011352841</v>
+        <v>637.5031057050564</v>
       </c>
       <c r="P28" t="n">
-        <v>738.177267574012</v>
+        <v>810.2920987177723</v>
       </c>
       <c r="Q28" t="n">
-        <v>820.0965995889006</v>
+        <v>810.2920987177723</v>
       </c>
       <c r="R28" t="n">
-        <v>802.8418067881057</v>
+        <v>793.0373059169774</v>
       </c>
       <c r="S28" t="n">
-        <v>732.1523626918902</v>
+        <v>722.3478618207619</v>
       </c>
       <c r="T28" t="n">
-        <v>654.5135383929309</v>
+        <v>644.7090375218025</v>
       </c>
       <c r="U28" t="n">
-        <v>516.9558412881776</v>
+        <v>507.1513404170493</v>
       </c>
       <c r="V28" t="n">
-        <v>413.9124372308346</v>
+        <v>404.1079363597064</v>
       </c>
       <c r="W28" t="n">
-        <v>276.1363513424179</v>
+        <v>266.3318504712897</v>
       </c>
       <c r="X28" t="n">
-        <v>199.7878845929445</v>
+        <v>189.9833837218164</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.6363895979584</v>
+        <v>120.8318887268302</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1467.668723218726</v>
+        <v>1467.668723218725</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.347290426858</v>
+        <v>1250.347290426857</v>
       </c>
       <c r="D29" t="n">
-        <v>1043.722675968652</v>
+        <v>1043.722675968651</v>
       </c>
       <c r="E29" t="n">
-        <v>809.5755075189513</v>
+        <v>809.5755075189506</v>
       </c>
       <c r="F29" t="n">
-        <v>550.2306868778878</v>
+        <v>550.2306868778871</v>
       </c>
       <c r="G29" t="n">
-        <v>282.879202201151</v>
+        <v>282.8792022011503</v>
       </c>
       <c r="H29" t="n">
-        <v>96.78977062648492</v>
+        <v>96.78977062648491</v>
       </c>
       <c r="I29" t="n">
-        <v>55.30358097863248</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J29" t="n">
-        <v>234.117647463182</v>
+        <v>234.1176474631812</v>
       </c>
       <c r="K29" t="n">
-        <v>548.7338213947403</v>
+        <v>548.7338213947398</v>
       </c>
       <c r="L29" t="n">
-        <v>955.56255669079</v>
+        <v>955.5625566907891</v>
       </c>
       <c r="M29" t="n">
-        <v>1408.09568552778</v>
+        <v>1408.095685527779</v>
       </c>
       <c r="N29" t="n">
         <v>1850.914393529384</v>
       </c>
       <c r="O29" t="n">
-        <v>2232.150444128818</v>
+        <v>2232.150444128817</v>
       </c>
       <c r="P29" t="n">
-        <v>2541.628980717731</v>
+        <v>2541.62898071773</v>
       </c>
       <c r="Q29" t="n">
-        <v>2733.826136175393</v>
+        <v>2733.826136175392</v>
       </c>
       <c r="R29" t="n">
         <v>2765.179048931624</v>
@@ -6494,16 +6494,16 @@
         <v>2645.702777461946</v>
       </c>
       <c r="U29" t="n">
-        <v>2543.499775390705</v>
+        <v>2543.499775390704</v>
       </c>
       <c r="V29" t="n">
-        <v>2364.077972195678</v>
+        <v>2364.077972195677</v>
       </c>
       <c r="W29" t="n">
-        <v>2162.950401074108</v>
+        <v>2162.950401074107</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.125726961572</v>
+        <v>1941.125726961571</v>
       </c>
       <c r="Y29" t="n">
         <v>1702.627479134303</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>765.457077508882</v>
+        <v>499.7528954891183</v>
       </c>
       <c r="C30" t="n">
-        <v>591.004048227755</v>
+        <v>325.2998662079913</v>
       </c>
       <c r="D30" t="n">
-        <v>442.0696385665037</v>
+        <v>325.2998662079913</v>
       </c>
       <c r="E30" t="n">
-        <v>282.8321835610482</v>
+        <v>166.0624112025358</v>
       </c>
       <c r="F30" t="n">
-        <v>136.2976255879332</v>
+        <v>166.0624112025358</v>
       </c>
       <c r="G30" t="n">
-        <v>136.2976255879332</v>
+        <v>166.0624112025358</v>
       </c>
       <c r="H30" t="n">
-        <v>136.2976255879332</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="I30" t="n">
-        <v>55.30358097863248</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J30" t="n">
         <v>79.59153959977077</v>
@@ -6564,28 +6564,28 @@
         <v>1984.290437959935</v>
       </c>
       <c r="R30" t="n">
-        <v>1981.450522773163</v>
+        <v>1899.901781717513</v>
       </c>
       <c r="S30" t="n">
-        <v>1964.694536321364</v>
+        <v>1731.504711117169</v>
       </c>
       <c r="T30" t="n">
-        <v>1763.597347054184</v>
+        <v>1530.40752184999</v>
       </c>
       <c r="U30" t="n">
-        <v>1687.032594310837</v>
+        <v>1302.201684958099</v>
       </c>
       <c r="V30" t="n">
-        <v>1603.521570227638</v>
+        <v>1218.6906608749</v>
       </c>
       <c r="W30" t="n">
-        <v>1349.284213499437</v>
+        <v>1083.580031479673</v>
       </c>
       <c r="X30" t="n">
-        <v>1141.432713293904</v>
+        <v>875.7285312741401</v>
       </c>
       <c r="Y30" t="n">
-        <v>933.67241452895</v>
+        <v>667.9682325091862</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.6290089162626</v>
+        <v>90.82450804513451</v>
       </c>
       <c r="C31" t="n">
-        <v>83.3339101368997</v>
+        <v>73.52940926577156</v>
       </c>
       <c r="D31" t="n">
-        <v>83.3339101368997</v>
+        <v>75.02351755172926</v>
       </c>
       <c r="E31" t="n">
-        <v>83.3339101368997</v>
+        <v>78.6773211056137</v>
       </c>
       <c r="F31" t="n">
         <v>83.3339101368997</v>
       </c>
       <c r="G31" t="n">
-        <v>65.51372737958128</v>
+        <v>65.51372737958127</v>
       </c>
       <c r="H31" t="n">
-        <v>55.30358097863248</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="I31" t="n">
-        <v>55.30358097863248</v>
+        <v>55.30358097863247</v>
       </c>
       <c r="J31" t="n">
-        <v>127.202607477113</v>
+        <v>68.76417759269145</v>
       </c>
       <c r="K31" t="n">
-        <v>130.9576860622474</v>
+        <v>221.1426827518138</v>
       </c>
       <c r="L31" t="n">
-        <v>339.9127549998615</v>
+        <v>281.47432511544</v>
       </c>
       <c r="M31" t="n">
-        <v>413.9131358463586</v>
+        <v>504.0981325359251</v>
       </c>
       <c r="N31" t="n">
-        <v>491.5885694571629</v>
+        <v>581.7735661467293</v>
       </c>
       <c r="O31" t="n">
-        <v>565.3882745612962</v>
+        <v>637.5031057050564</v>
       </c>
       <c r="P31" t="n">
-        <v>738.177267574012</v>
+        <v>810.2920987177723</v>
       </c>
       <c r="Q31" t="n">
-        <v>820.0965995889006</v>
+        <v>810.2920987177723</v>
       </c>
       <c r="R31" t="n">
-        <v>802.8418067881057</v>
+        <v>793.0373059169774</v>
       </c>
       <c r="S31" t="n">
-        <v>732.1523626918902</v>
+        <v>722.3478618207619</v>
       </c>
       <c r="T31" t="n">
-        <v>654.5135383929309</v>
+        <v>644.7090375218025</v>
       </c>
       <c r="U31" t="n">
-        <v>516.9558412881776</v>
+        <v>507.1513404170493</v>
       </c>
       <c r="V31" t="n">
-        <v>413.9124372308346</v>
+        <v>404.1079363597064</v>
       </c>
       <c r="W31" t="n">
-        <v>276.1363513424179</v>
+        <v>266.3318504712897</v>
       </c>
       <c r="X31" t="n">
-        <v>199.7878845929445</v>
+        <v>189.9833837218164</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.6363895979584</v>
+        <v>120.8318887268302</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1454.540059882552</v>
+        <v>1454.540059882553</v>
       </c>
       <c r="C32" t="n">
-        <v>1239.015567044518</v>
+        <v>1239.015567044519</v>
       </c>
       <c r="D32" t="n">
         <v>1034.187892540146</v>
       </c>
       <c r="E32" t="n">
-        <v>801.8376640442791</v>
+        <v>801.8376640442798</v>
       </c>
       <c r="F32" t="n">
-        <v>544.2897833570494</v>
+        <v>544.2897833570502</v>
       </c>
       <c r="G32" t="n">
-        <v>278.7352386341463</v>
+        <v>278.7352386341461</v>
       </c>
       <c r="H32" t="n">
-        <v>94.44274701331418</v>
+        <v>94.44274701331405</v>
       </c>
       <c r="I32" t="n">
-        <v>54.75349731929557</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="J32" t="n">
-        <v>192.524017706316</v>
+        <v>235.3287446525975</v>
       </c>
       <c r="K32" t="n">
-        <v>508.9013724866269</v>
+        <v>508.9013724866255</v>
       </c>
       <c r="L32" t="n">
-        <v>917.4912886314287</v>
+        <v>917.4912886314274</v>
       </c>
       <c r="M32" t="n">
-        <v>1371.785598317171</v>
+        <v>1371.78559831717</v>
       </c>
       <c r="N32" t="n">
-        <v>1816.365487167528</v>
+        <v>1816.365487167527</v>
       </c>
       <c r="O32" t="n">
-        <v>2199.362718615714</v>
+        <v>2199.362718615713</v>
       </c>
       <c r="P32" t="n">
-        <v>2510.60243605338</v>
+        <v>2510.602436053379</v>
       </c>
       <c r="Q32" t="n">
-        <v>2704.560772359795</v>
+        <v>2704.560772359794</v>
       </c>
       <c r="R32" t="n">
         <v>2737.674865964778</v>
@@ -6731,10 +6731,10 @@
         <v>2621.792474402769</v>
       </c>
       <c r="U32" t="n">
-        <v>2521.386412285362</v>
+        <v>2521.386412285361</v>
       </c>
       <c r="V32" t="n">
-        <v>2343.761549044169</v>
+        <v>2343.761549044168</v>
       </c>
       <c r="W32" t="n">
         <v>2144.430917876432</v>
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>822.3734978074826</v>
+        <v>466.2616806930632</v>
       </c>
       <c r="C33" t="n">
-        <v>647.9204685263556</v>
+        <v>291.8086514119361</v>
       </c>
       <c r="D33" t="n">
-        <v>498.9860588651044</v>
+        <v>142.8742417506849</v>
       </c>
       <c r="E33" t="n">
-        <v>339.7486038596489</v>
+        <v>137.0748108476073</v>
       </c>
       <c r="F33" t="n">
-        <v>193.2140458865339</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="G33" t="n">
-        <v>54.75349731929557</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="H33" t="n">
-        <v>54.75349731929557</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="I33" t="n">
-        <v>54.75349731929557</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="J33" t="n">
-        <v>79.04145594043386</v>
+        <v>79.04145594043385</v>
       </c>
       <c r="K33" t="n">
         <v>247.1742888679011</v>
@@ -6804,25 +6804,25 @@
         <v>1983.740354300598</v>
       </c>
       <c r="S33" t="n">
-        <v>1968.781307802632</v>
+        <v>1815.343283700255</v>
       </c>
       <c r="T33" t="n">
-        <v>1921.122142637831</v>
+        <v>1614.246094433075</v>
       </c>
       <c r="U33" t="n">
-        <v>1742.152074655604</v>
+        <v>1386.040257541184</v>
       </c>
       <c r="V33" t="n">
-        <v>1506.999966423861</v>
+        <v>1150.888149309442</v>
       </c>
       <c r="W33" t="n">
-        <v>1252.76260969566</v>
+        <v>896.65079258124</v>
       </c>
       <c r="X33" t="n">
-        <v>1044.911109490127</v>
+        <v>688.7992923757072</v>
       </c>
       <c r="Y33" t="n">
-        <v>837.1508107251728</v>
+        <v>481.0389936107533</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.68810539542419</v>
+        <v>79.60006197803769</v>
       </c>
       <c r="C34" t="n">
-        <v>79.18994656989508</v>
+        <v>64.1019031525087</v>
       </c>
       <c r="D34" t="n">
-        <v>79.18994656989508</v>
+        <v>67.35719228721906</v>
       </c>
       <c r="E34" t="n">
-        <v>79.18994656989508</v>
+        <v>72.77217668985618</v>
       </c>
       <c r="F34" t="n">
-        <v>79.18994656989508</v>
+        <v>79.18994656989484</v>
       </c>
       <c r="G34" t="n">
-        <v>63.16670376641051</v>
+        <v>63.16670376641039</v>
       </c>
       <c r="H34" t="n">
-        <v>54.75349731929557</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="I34" t="n">
-        <v>57.9207420859631</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="J34" t="n">
-        <v>131.5809494331961</v>
+        <v>54.75349731929555</v>
       </c>
       <c r="K34" t="n">
-        <v>135.3360280183305</v>
+        <v>208.8931833271706</v>
       </c>
       <c r="L34" t="n">
-        <v>346.0522778046973</v>
+        <v>269.2248256907968</v>
       </c>
       <c r="M34" t="n">
-        <v>420.0526586511943</v>
+        <v>343.2252065372938</v>
       </c>
       <c r="N34" t="n">
-        <v>497.7280922619987</v>
+        <v>420.9006401480981</v>
       </c>
       <c r="O34" t="n">
-        <v>703.8422392430663</v>
+        <v>608.3450192047013</v>
       </c>
       <c r="P34" t="n">
-        <v>728.0078056817943</v>
+        <v>782.8951930661699</v>
       </c>
       <c r="Q34" t="n">
-        <v>797.9832364835574</v>
+        <v>782.8951930661699</v>
       </c>
       <c r="R34" t="n">
-        <v>782.5253836365964</v>
+        <v>767.437340219209</v>
       </c>
       <c r="S34" t="n">
-        <v>713.6328794942148</v>
+        <v>698.5448360768274</v>
       </c>
       <c r="T34" t="n">
-        <v>637.7909951490892</v>
+        <v>622.702951731702</v>
       </c>
       <c r="U34" t="n">
-        <v>502.0302379981698</v>
+        <v>486.9421945807827</v>
       </c>
       <c r="V34" t="n">
-        <v>400.7837738946607</v>
+        <v>385.6957304772737</v>
       </c>
       <c r="W34" t="n">
-        <v>264.8046279600779</v>
+        <v>249.7165845426911</v>
       </c>
       <c r="X34" t="n">
-        <v>190.2531011644384</v>
+        <v>175.1650577470517</v>
       </c>
       <c r="Y34" t="n">
-        <v>122.8985461232861</v>
+        <v>107.8105027058995</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>34.50916758120384</v>
       </c>
       <c r="I35" t="n">
-        <v>63.92274609308365</v>
+        <v>34.50916758120384</v>
       </c>
       <c r="J35" t="n">
-        <v>141.6370783198767</v>
+        <v>64.69980749176517</v>
       </c>
       <c r="K35" t="n">
-        <v>307.6298256774471</v>
+        <v>230.6925548493355</v>
       </c>
       <c r="L35" t="n">
-        <v>565.8351343995084</v>
+        <v>488.8978635713969</v>
       </c>
       <c r="M35" t="n">
-        <v>869.7448366625106</v>
+        <v>792.8075658343992</v>
       </c>
       <c r="N35" t="n">
-        <v>1163.940118090127</v>
+        <v>1087.002847262015</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.552742115572</v>
+        <v>1497.979847857544</v>
       </c>
       <c r="P35" t="n">
-        <v>1557.407852130497</v>
+        <v>1658.834957872469</v>
       </c>
       <c r="Q35" t="n">
-        <v>1600.981581014172</v>
+        <v>1702.408686756143</v>
       </c>
       <c r="R35" t="n">
         <v>1702.408686756143</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>539.1756202627731</v>
+        <v>569.3579294283745</v>
       </c>
       <c r="C36" t="n">
-        <v>364.7225909816461</v>
+        <v>394.9049001472475</v>
       </c>
       <c r="D36" t="n">
-        <v>364.7225909816461</v>
+        <v>245.9704904859963</v>
       </c>
       <c r="E36" t="n">
-        <v>364.7225909816461</v>
+        <v>86.73303548054076</v>
       </c>
       <c r="F36" t="n">
-        <v>364.7225909816461</v>
+        <v>86.73303548054076</v>
       </c>
       <c r="G36" t="n">
-        <v>226.2620424144079</v>
+        <v>86.73303548054076</v>
       </c>
       <c r="H36" t="n">
-        <v>115.5032121905045</v>
+        <v>34.50916758120384</v>
       </c>
       <c r="I36" t="n">
         <v>34.50916758120384</v>
@@ -7017,19 +7017,19 @@
         <v>58.79712620234213</v>
       </c>
       <c r="K36" t="n">
-        <v>226.9299591298093</v>
+        <v>222.1197559907695</v>
       </c>
       <c r="L36" t="n">
-        <v>514.4096981679177</v>
+        <v>509.5994950288779</v>
       </c>
       <c r="M36" t="n">
-        <v>901.8642157224045</v>
+        <v>897.0540125833647</v>
       </c>
       <c r="N36" t="n">
-        <v>1077.242869334802</v>
+        <v>1310.470311698077</v>
       </c>
       <c r="O36" t="n">
-        <v>1389.022337343821</v>
+        <v>1622.249779707096</v>
       </c>
       <c r="P36" t="n">
         <v>1622.249779707096</v>
@@ -7041,25 +7041,25 @@
         <v>1641.06972281777</v>
       </c>
       <c r="S36" t="n">
-        <v>1617.459991010246</v>
+        <v>1472.672652217427</v>
       </c>
       <c r="T36" t="n">
-        <v>1617.459991010246</v>
+        <v>1271.575462950247</v>
       </c>
       <c r="U36" t="n">
-        <v>1612.392221213272</v>
+        <v>1043.369626058356</v>
       </c>
       <c r="V36" t="n">
-        <v>1377.240112981529</v>
+        <v>1031.35558492153</v>
       </c>
       <c r="W36" t="n">
-        <v>1123.002756253328</v>
+        <v>777.1182281933284</v>
       </c>
       <c r="X36" t="n">
-        <v>915.151256047795</v>
+        <v>777.1182281933284</v>
       </c>
       <c r="Y36" t="n">
-        <v>707.3909572828411</v>
+        <v>569.3579294283745</v>
       </c>
     </row>
     <row r="37">
@@ -7096,10 +7096,10 @@
         <v>34.50916758120384</v>
       </c>
       <c r="K37" t="n">
-        <v>38.26424616633822</v>
+        <v>38.26424616633823</v>
       </c>
       <c r="L37" t="n">
-        <v>98.59588852996444</v>
+        <v>98.59588852996445</v>
       </c>
       <c r="M37" t="n">
         <v>172.5962693764615</v>
@@ -7120,19 +7120,19 @@
         <v>330.1668089843209</v>
       </c>
       <c r="S37" t="n">
-        <v>330.1668089843209</v>
+        <v>209.3887309482855</v>
       </c>
       <c r="T37" t="n">
-        <v>324.0249676317343</v>
+        <v>203.2468895956989</v>
       </c>
       <c r="U37" t="n">
-        <v>257.9642534733539</v>
+        <v>137.1861754373184</v>
       </c>
       <c r="V37" t="n">
-        <v>226.4178323623838</v>
+        <v>105.6397543263483</v>
       </c>
       <c r="W37" t="n">
-        <v>160.1387294203399</v>
+        <v>39.36065138430441</v>
       </c>
       <c r="X37" t="n">
         <v>34.50916758120384</v>
@@ -7169,34 +7169,34 @@
         <v>34.50916758120383</v>
       </c>
       <c r="I38" t="n">
-        <v>63.92274609308363</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="J38" t="n">
-        <v>94.11338600364496</v>
+        <v>266.1138763658961</v>
       </c>
       <c r="K38" t="n">
-        <v>260.1061333612153</v>
+        <v>432.1066237234665</v>
       </c>
       <c r="L38" t="n">
-        <v>518.3114420832767</v>
+        <v>690.3119324455279</v>
       </c>
       <c r="M38" t="n">
-        <v>822.2211443462788</v>
+        <v>994.22163470853</v>
       </c>
       <c r="N38" t="n">
-        <v>1116.416425773895</v>
+        <v>1288.416916136146</v>
       </c>
       <c r="O38" t="n">
-        <v>1349.029049799341</v>
+        <v>1521.029540161592</v>
       </c>
       <c r="P38" t="n">
-        <v>1509.884159814266</v>
+        <v>1681.884650176517</v>
       </c>
       <c r="Q38" t="n">
-        <v>1600.981581014171</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="R38" t="n">
-        <v>1702.408686756142</v>
+        <v>1725.458379060191</v>
       </c>
       <c r="S38" t="n">
         <v>1725.458379060191</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>631.7962399827552</v>
+        <v>440.7369654394735</v>
       </c>
       <c r="C39" t="n">
-        <v>457.3432107016282</v>
+        <v>440.7369654394735</v>
       </c>
       <c r="D39" t="n">
-        <v>457.3432107016282</v>
+        <v>291.8025557782222</v>
       </c>
       <c r="E39" t="n">
-        <v>457.3432107016282</v>
+        <v>291.8025557782222</v>
       </c>
       <c r="F39" t="n">
-        <v>364.7225909816461</v>
+        <v>145.2679978051071</v>
       </c>
       <c r="G39" t="n">
-        <v>226.2620424144079</v>
+        <v>145.2679978051071</v>
       </c>
       <c r="H39" t="n">
-        <v>115.5032121905045</v>
+        <v>34.50916758120383</v>
       </c>
       <c r="I39" t="n">
         <v>34.50916758120383</v>
       </c>
       <c r="J39" t="n">
-        <v>34.50916758120383</v>
+        <v>58.79712620234211</v>
       </c>
       <c r="K39" t="n">
-        <v>34.50916758120383</v>
+        <v>226.9299591298093</v>
       </c>
       <c r="L39" t="n">
-        <v>321.9889066193122</v>
+        <v>514.4096981679177</v>
       </c>
       <c r="M39" t="n">
-        <v>709.443424173799</v>
+        <v>901.8642157224045</v>
       </c>
       <c r="N39" t="n">
-        <v>1122.859723288511</v>
+        <v>1315.280514837117</v>
       </c>
       <c r="O39" t="n">
-        <v>1434.63919129753</v>
+        <v>1389.02233734382</v>
       </c>
       <c r="P39" t="n">
-        <v>1667.866633660805</v>
+        <v>1622.249779707095</v>
       </c>
       <c r="Q39" t="n">
         <v>1725.458379060191</v>
       </c>
       <c r="R39" t="n">
-        <v>1725.458379060191</v>
+        <v>1641.069722817769</v>
       </c>
       <c r="S39" t="n">
-        <v>1725.458379060191</v>
+        <v>1472.672652217426</v>
       </c>
       <c r="T39" t="n">
-        <v>1725.458379060191</v>
+        <v>1472.672652217426</v>
       </c>
       <c r="U39" t="n">
-        <v>1497.2525421683</v>
+        <v>1244.466815325535</v>
       </c>
       <c r="V39" t="n">
-        <v>1262.100433936558</v>
+        <v>1232.452774188709</v>
       </c>
       <c r="W39" t="n">
-        <v>1007.863077208356</v>
+        <v>978.2154174605073</v>
       </c>
       <c r="X39" t="n">
-        <v>800.0115770028233</v>
+        <v>770.3639172549745</v>
       </c>
       <c r="Y39" t="n">
-        <v>800.0115770028233</v>
+        <v>608.9523024595414</v>
       </c>
     </row>
     <row r="40">
@@ -7333,7 +7333,7 @@
         <v>34.50916758120383</v>
       </c>
       <c r="K40" t="n">
-        <v>38.26424616633821</v>
+        <v>38.26424616633822</v>
       </c>
       <c r="L40" t="n">
         <v>98.59588852996444</v>
@@ -7354,13 +7354,13 @@
         <v>330.1668089843209</v>
       </c>
       <c r="R40" t="n">
-        <v>330.1668089843209</v>
+        <v>209.3887309482855</v>
       </c>
       <c r="S40" t="n">
-        <v>330.1668089843209</v>
+        <v>209.3887309482855</v>
       </c>
       <c r="T40" t="n">
-        <v>324.0249676317343</v>
+        <v>203.2468895956989</v>
       </c>
       <c r="U40" t="n">
         <v>137.1861754373184</v>
@@ -7385,73 +7385,73 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1091.127662321284</v>
+        <v>1091.127662321285</v>
       </c>
       <c r="C41" t="n">
-        <v>926.9926243602263</v>
+        <v>926.992624360227</v>
       </c>
       <c r="D41" t="n">
-        <v>773.5544047328301</v>
+        <v>773.5544047328304</v>
       </c>
       <c r="E41" t="n">
-        <v>592.5936311139401</v>
+        <v>592.5936311139402</v>
       </c>
       <c r="F41" t="n">
-        <v>386.4352053036867</v>
+        <v>386.4352053036866</v>
       </c>
       <c r="G41" t="n">
-        <v>172.2701154577601</v>
+        <v>172.2701154577602</v>
       </c>
       <c r="H41" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="I41" t="n">
-        <v>50.83444981372093</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="J41" t="n">
-        <v>281.7765018719472</v>
+        <v>69.55771862446548</v>
       </c>
       <c r="K41" t="n">
-        <v>586.4177971365875</v>
+        <v>235.5504659820358</v>
       </c>
       <c r="L41" t="n">
-        <v>844.6231058586488</v>
+        <v>694.5071868517621</v>
       </c>
       <c r="M41" t="n">
-        <v>1148.532808121651</v>
+        <v>998.4168891147642</v>
       </c>
       <c r="N41" t="n">
-        <v>1442.728089549267</v>
+        <v>1292.61217054238</v>
       </c>
       <c r="O41" t="n">
-        <v>1675.340713574713</v>
+        <v>1525.224794567826</v>
       </c>
       <c r="P41" t="n">
-        <v>1836.195823589638</v>
+        <v>1836.195823589639</v>
       </c>
       <c r="Q41" t="n">
-        <v>1879.769552473312</v>
+        <v>1879.769552473313</v>
       </c>
       <c r="R41" t="n">
-        <v>1963.25045080322</v>
+        <v>1963.250450803221</v>
       </c>
       <c r="S41" t="n">
-        <v>1968.353935695206</v>
+        <v>1968.353935695207</v>
       </c>
       <c r="T41" t="n">
         <v>1950.043347579644</v>
       </c>
       <c r="U41" t="n">
-        <v>1901.026740339212</v>
+        <v>1901.026740339213</v>
       </c>
       <c r="V41" t="n">
         <v>1774.791331974996</v>
       </c>
       <c r="W41" t="n">
-        <v>1626.850155684235</v>
+        <v>1626.850155684236</v>
       </c>
       <c r="X41" t="n">
-        <v>1458.211876402509</v>
+        <v>1458.21187640251</v>
       </c>
       <c r="Y41" t="n">
         <v>1272.900023406052</v>
@@ -7464,40 +7464,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>749.5205752441535</v>
+        <v>485.9994919478492</v>
       </c>
       <c r="C42" t="n">
-        <v>575.0675459630265</v>
+        <v>485.9994919478492</v>
       </c>
       <c r="D42" t="n">
-        <v>426.1331363017753</v>
+        <v>337.0650822865979</v>
       </c>
       <c r="E42" t="n">
-        <v>266.8956812963198</v>
+        <v>177.8276272811424</v>
       </c>
       <c r="F42" t="n">
-        <v>120.3611233232048</v>
+        <v>177.8276272811424</v>
       </c>
       <c r="G42" t="n">
-        <v>120.3611233232048</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="H42" t="n">
-        <v>120.3611233232048</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="I42" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="J42" t="n">
-        <v>63.65503733504242</v>
+        <v>63.65503733504281</v>
       </c>
       <c r="K42" t="n">
-        <v>231.7878702625096</v>
+        <v>231.78787026251</v>
       </c>
       <c r="L42" t="n">
-        <v>519.267609300618</v>
+        <v>519.2676093006183</v>
       </c>
       <c r="M42" t="n">
-        <v>906.7221268551049</v>
+        <v>906.7221268551052</v>
       </c>
       <c r="N42" t="n">
         <v>1320.138425969817</v>
@@ -7506,34 +7506,34 @@
         <v>1631.917893978836</v>
       </c>
       <c r="P42" t="n">
-        <v>1865.14533634211</v>
+        <v>1865.145336342111</v>
       </c>
       <c r="Q42" t="n">
-        <v>1968.353935695206</v>
+        <v>1968.353935695207</v>
       </c>
       <c r="R42" t="n">
-        <v>1968.353935695206</v>
+        <v>1968.353935695207</v>
       </c>
       <c r="S42" t="n">
-        <v>1968.353935695206</v>
+        <v>1799.956865094864</v>
       </c>
       <c r="T42" t="n">
-        <v>1968.353935695206</v>
+        <v>1598.859675827684</v>
       </c>
       <c r="U42" t="n">
-        <v>1740.148098803316</v>
+        <v>1370.653838935793</v>
       </c>
       <c r="V42" t="n">
-        <v>1504.995990571573</v>
+        <v>1135.50173070405</v>
       </c>
       <c r="W42" t="n">
-        <v>1250.758633843371</v>
+        <v>1069.826627938404</v>
       </c>
       <c r="X42" t="n">
-        <v>1042.907133637839</v>
+        <v>861.975127732871</v>
       </c>
       <c r="Y42" t="n">
-        <v>917.7359122642215</v>
+        <v>654.2148289679171</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="C43" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="D43" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="E43" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="F43" t="n">
-        <v>43.61009068526365</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="G43" t="n">
-        <v>43.61009068526365</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="H43" t="n">
-        <v>43.61009068526365</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="I43" t="n">
-        <v>43.61009068526365</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="J43" t="n">
-        <v>43.61009068526365</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="K43" t="n">
-        <v>47.36516927039803</v>
+        <v>43.12215729903853</v>
       </c>
       <c r="L43" t="n">
-        <v>107.6968116340243</v>
+        <v>103.4537996626647</v>
       </c>
       <c r="M43" t="n">
-        <v>181.6971924805214</v>
+        <v>177.4541805091619</v>
       </c>
       <c r="N43" t="n">
-        <v>259.3726260913256</v>
+        <v>255.1296141199661</v>
       </c>
       <c r="O43" t="n">
-        <v>315.1021656496528</v>
+        <v>310.8591536782933</v>
       </c>
       <c r="P43" t="n">
-        <v>339.2677320883807</v>
+        <v>335.0247201170213</v>
       </c>
       <c r="Q43" t="n">
-        <v>339.2677320883807</v>
+        <v>335.0247201170213</v>
       </c>
       <c r="R43" t="n">
-        <v>339.2677320883807</v>
+        <v>339.2677320883811</v>
       </c>
       <c r="S43" t="n">
-        <v>321.7646828229753</v>
+        <v>321.7646828229756</v>
       </c>
       <c r="T43" t="n">
-        <v>297.312253354826</v>
+        <v>297.3122533548263</v>
       </c>
       <c r="U43" t="n">
-        <v>212.9409510808828</v>
+        <v>212.9409510808831</v>
       </c>
       <c r="V43" t="n">
-        <v>163.08394185435</v>
+        <v>163.0839418543502</v>
       </c>
       <c r="W43" t="n">
-        <v>78.49425079674343</v>
+        <v>78.49425079674356</v>
       </c>
       <c r="X43" t="n">
-        <v>55.33217887808016</v>
+        <v>55.33217887808024</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.36707871390413</v>
+        <v>39.36707871390414</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>1091.127662321285</v>
       </c>
       <c r="C44" t="n">
-        <v>926.9926243602279</v>
+        <v>926.9926243602274</v>
       </c>
       <c r="D44" t="n">
-        <v>773.5544047328315</v>
+        <v>773.554404732831</v>
       </c>
       <c r="E44" t="n">
-        <v>592.5936311139413</v>
+        <v>592.5936311139409</v>
       </c>
       <c r="F44" t="n">
-        <v>386.4352053036879</v>
+        <v>386.4352053036874</v>
       </c>
       <c r="G44" t="n">
         <v>172.2701154577601</v>
@@ -7652,22 +7652,22 @@
         <v>247.0178370818526</v>
       </c>
       <c r="L44" t="n">
-        <v>661.3652090370877</v>
+        <v>705.9745579515788</v>
       </c>
       <c r="M44" t="n">
-        <v>1148.532808121651</v>
+        <v>1039.041388794612</v>
       </c>
       <c r="N44" t="n">
-        <v>1442.728089549268</v>
+        <v>1526.208987879176</v>
       </c>
       <c r="O44" t="n">
-        <v>1675.340713574713</v>
+        <v>1758.821611904622</v>
       </c>
       <c r="P44" t="n">
-        <v>1836.195823589638</v>
+        <v>1919.676721919547</v>
       </c>
       <c r="Q44" t="n">
-        <v>1879.769552473313</v>
+        <v>1963.250450803221</v>
       </c>
       <c r="R44" t="n">
         <v>1963.250450803221</v>
@@ -7676,19 +7676,19 @@
         <v>1968.353935695207</v>
       </c>
       <c r="T44" t="n">
-        <v>1950.043347579645</v>
+        <v>1950.043347579644</v>
       </c>
       <c r="U44" t="n">
         <v>1901.026740339213</v>
       </c>
       <c r="V44" t="n">
-        <v>1774.791331974997</v>
+        <v>1774.791331974996</v>
       </c>
       <c r="W44" t="n">
-        <v>1626.850155684237</v>
+        <v>1626.850155684236</v>
       </c>
       <c r="X44" t="n">
-        <v>1458.211876402511</v>
+        <v>1458.21187640251</v>
       </c>
       <c r="Y44" t="n">
         <v>1272.900023406053</v>
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>381.2639187629399</v>
+        <v>806.9870792020912</v>
       </c>
       <c r="C45" t="n">
-        <v>381.2639187629399</v>
+        <v>632.5340499209642</v>
       </c>
       <c r="D45" t="n">
-        <v>381.2639187629399</v>
+        <v>483.5996402597129</v>
       </c>
       <c r="E45" t="n">
-        <v>222.0264637574844</v>
+        <v>324.3621852542574</v>
       </c>
       <c r="F45" t="n">
-        <v>120.3611233232049</v>
+        <v>177.8276272811424</v>
       </c>
       <c r="G45" t="n">
-        <v>120.3611233232049</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="H45" t="n">
-        <v>120.3611233232049</v>
+        <v>39.36707871390414</v>
       </c>
       <c r="I45" t="n">
         <v>39.36707871390414</v>
       </c>
       <c r="J45" t="n">
-        <v>63.65503733504241</v>
+        <v>63.65503733504244</v>
       </c>
       <c r="K45" t="n">
         <v>231.7878702625096</v>
@@ -7755,22 +7755,22 @@
         <v>1715.568208852442</v>
       </c>
       <c r="T45" t="n">
-        <v>1514.471019585262</v>
+        <v>1715.568208852442</v>
       </c>
       <c r="U45" t="n">
-        <v>1286.265182693371</v>
+        <v>1487.362371960551</v>
       </c>
       <c r="V45" t="n">
-        <v>1051.113074461628</v>
+        <v>1457.037742708162</v>
       </c>
       <c r="W45" t="n">
-        <v>796.8757177334267</v>
+        <v>1202.800385979961</v>
       </c>
       <c r="X45" t="n">
-        <v>589.0242175278938</v>
+        <v>994.9488857744277</v>
       </c>
       <c r="Y45" t="n">
-        <v>381.2639187629399</v>
+        <v>806.9870792020912</v>
       </c>
     </row>
     <row r="46">
@@ -7813,19 +7813,19 @@
         <v>103.4537996626647</v>
       </c>
       <c r="M46" t="n">
-        <v>177.4541805091619</v>
+        <v>181.6971924805213</v>
       </c>
       <c r="N46" t="n">
-        <v>255.1296141199661</v>
+        <v>259.3726260913256</v>
       </c>
       <c r="O46" t="n">
-        <v>310.8591536782933</v>
+        <v>315.1021656496527</v>
       </c>
       <c r="P46" t="n">
-        <v>335.0247201170213</v>
+        <v>339.2677320883807</v>
       </c>
       <c r="Q46" t="n">
-        <v>335.0247201170213</v>
+        <v>339.2677320883807</v>
       </c>
       <c r="R46" t="n">
         <v>339.2677320883807</v>
@@ -8456,10 +8456,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>242.3646406817305</v>
       </c>
       <c r="M8" t="n">
-        <v>236.944458939016</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>236.2891093383024</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P9" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>146.857819827733</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M10" t="n">
         <v>145.8018296893165</v>
@@ -8623,7 +8623,7 @@
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8775,13 +8775,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>454.3203189461499</v>
+        <v>454.32031894615</v>
       </c>
       <c r="N12" t="n">
-        <v>361.7652541297998</v>
+        <v>61.75015301556138</v>
       </c>
       <c r="O12" t="n">
-        <v>78.93356371206409</v>
+        <v>378.9486648263027</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>101.5577438039055</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>398.8852568507548</v>
+        <v>74.33686420001317</v>
       </c>
       <c r="N15" t="n">
-        <v>441.7336077616981</v>
+        <v>441.7336077616982</v>
       </c>
       <c r="O15" t="n">
-        <v>78.93356371206407</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>303.5491141895104</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>101.5577438039055</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>159.951702601983</v>
       </c>
       <c r="L18" t="n">
-        <v>340.3109132154906</v>
+        <v>80.45677051749118</v>
       </c>
       <c r="M18" t="n">
         <v>454.32031894615</v>
       </c>
       <c r="N18" t="n">
-        <v>441.7336077616981</v>
+        <v>441.7336077616982</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>82.8794935255184</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>105.8261772781759</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>454.3203189461499</v>
+        <v>454.32031894615</v>
       </c>
       <c r="N21" t="n">
-        <v>61.75015301556138</v>
+        <v>441.7336077616982</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>234.5484851945846</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>82.87949352551838</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.163633285422</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.5577438039055</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>83.95650128608948</v>
+        <v>454.32031894615</v>
       </c>
       <c r="N24" t="n">
-        <v>441.7336077616981</v>
+        <v>61.75015301556138</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>378.9486648263027</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>259.6064459630435</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10674,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>238.9003081795997</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>82.87949352551838</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>101.5577438039055</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>94.6340926413996</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>153.4202531127747</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>163.9996574795765</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404092</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358488</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251.3538804794597</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>233.8929305869867</v>
+        <v>193.7460588482492</v>
       </c>
       <c r="D11" t="n">
-        <v>223.3030804366621</v>
+        <v>223.3030804366622</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>250.550408888241</v>
       </c>
       <c r="F11" t="n">
-        <v>275.4960845576906</v>
+        <v>275.4960845576907</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.4226819530072</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.9732493819571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.81603987441163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>49.04948085157871</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>217.8610075333922</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>238.3511394944482</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.3538804794598</v>
       </c>
       <c r="C14" t="n">
-        <v>233.8929305869867</v>
+        <v>233.8929305869868</v>
       </c>
       <c r="D14" t="n">
-        <v>223.3030804366621</v>
+        <v>223.3030804366622</v>
       </c>
       <c r="E14" t="n">
-        <v>250.550408888241</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.4960845576907</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>283.4226819530072</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>155.5947381653035</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.24420776110927</v>
+        <v>66.24420776110924</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>4.246851767346434</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>217.8610075333922</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.3511394944482</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>254.8579774720328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>962187.2857638147</v>
+        <v>962187.2857638148</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1104445.948092184</v>
+        <v>1104445.948092185</v>
       </c>
     </row>
     <row r="8">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450601.986294371</v>
+        <v>450601.9862943713</v>
       </c>
       <c r="C2" t="n">
         <v>450601.9862943712</v>
@@ -26320,40 +26320,40 @@
         <v>451204.0528595154</v>
       </c>
       <c r="E2" t="n">
-        <v>386371.0865248525</v>
+        <v>386371.0865248526</v>
       </c>
       <c r="F2" t="n">
-        <v>386371.0865248525</v>
+        <v>386371.0865248526</v>
       </c>
       <c r="G2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="H2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="I2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="J2" t="n">
         <v>451572.9734253557</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>451572.9734253555</v>
+      </c>
+      <c r="L2" t="n">
         <v>451572.9734253556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>451572.9734253556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>451572.9734253557</v>
       </c>
       <c r="M2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="N2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.973425356</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253555</v>
+        <v>451572.9734253554</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.9734253554</v>
+        <v>451572.9734253557</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84914.70873765004</v>
+        <v>84914.7087376501</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>116637.765644065</v>
+        <v>116637.7656440649</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86337.88518108644</v>
+        <v>86337.8851810866</v>
       </c>
       <c r="M3" t="n">
-        <v>85120.19345298703</v>
+        <v>85120.19345298699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35296.30877041438</v>
+        <v>35296.30877041431</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26454,10 +26454,10 @@
         <v>350924.8970335764</v>
       </c>
       <c r="O4" t="n">
+        <v>349052.7393806163</v>
+      </c>
+      <c r="P4" t="n">
         <v>349052.7393806164</v>
-      </c>
-      <c r="P4" t="n">
-        <v>349052.7393806165</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>36859.86279422477</v>
       </c>
       <c r="G5" t="n">
-        <v>45783.23110530664</v>
+        <v>45783.23110530665</v>
       </c>
       <c r="H5" t="n">
-        <v>45783.23110530664</v>
+        <v>45783.23110530665</v>
       </c>
       <c r="I5" t="n">
-        <v>45783.23110530664</v>
+        <v>45783.23110530665</v>
       </c>
       <c r="J5" t="n">
         <v>57363.43949289199</v>
@@ -26506,7 +26506,7 @@
         <v>47510.25837157165</v>
       </c>
       <c r="O5" t="n">
-        <v>49678.3115284595</v>
+        <v>49678.31152845951</v>
       </c>
       <c r="P5" t="n">
         <v>49678.31152845951</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3173.382595160241</v>
+        <v>-3177.796173028121</v>
       </c>
       <c r="C6" t="n">
-        <v>-3173.382595160067</v>
+        <v>-3177.796173028179</v>
       </c>
       <c r="D6" t="n">
-        <v>-4923.637578571106</v>
+        <v>-4925.314490234075</v>
       </c>
       <c r="E6" t="n">
-        <v>-252019.952475614</v>
+        <v>-252316.324688798</v>
       </c>
       <c r="F6" t="n">
-        <v>64427.78969634998</v>
+        <v>64131.41748316605</v>
       </c>
       <c r="G6" t="n">
-        <v>-31635.09709123451</v>
+        <v>-31635.09709123481</v>
       </c>
       <c r="H6" t="n">
-        <v>53279.61164641561</v>
+        <v>53279.61164641549</v>
       </c>
       <c r="I6" t="n">
-        <v>53279.61164641532</v>
+        <v>53279.61164641543</v>
       </c>
       <c r="J6" t="n">
-        <v>-72433.21197469706</v>
+        <v>-72433.21197469694</v>
       </c>
       <c r="K6" t="n">
-        <v>44204.55366936787</v>
+        <v>44204.55366936788</v>
       </c>
       <c r="L6" t="n">
-        <v>-41830.23592826384</v>
+        <v>-41830.23592826413</v>
       </c>
       <c r="M6" t="n">
-        <v>-31982.3754327792</v>
+        <v>-31982.37543277914</v>
       </c>
       <c r="N6" t="n">
-        <v>53137.81802020782</v>
+        <v>53137.81802020794</v>
       </c>
       <c r="O6" t="n">
-        <v>17545.61374586522</v>
+        <v>17545.61374586527</v>
       </c>
       <c r="P6" t="n">
-        <v>52841.92251627948</v>
+        <v>52841.92251627977</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>150.1246733070585</v>
       </c>
       <c r="L2" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="M2" t="n">
         <v>220.9066864239676</v>
@@ -26814,10 +26814,10 @@
         <v>691.294762232906</v>
       </c>
       <c r="K4" t="n">
-        <v>691.294762232906</v>
+        <v>691.2947622329059</v>
       </c>
       <c r="L4" t="n">
-        <v>684.4187164911946</v>
+        <v>684.4187164911945</v>
       </c>
       <c r="M4" t="n">
         <v>431.364594765048</v>
@@ -26826,7 +26826,7 @@
         <v>431.3645947650478</v>
       </c>
       <c r="O4" t="n">
-        <v>492.0884839238016</v>
+        <v>492.0884839238018</v>
       </c>
       <c r="P4" t="n">
         <v>492.0884839238018</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.1433859220625</v>
+        <v>106.1433859220626</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.98128738499597</v>
+        <v>43.98128738499588</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>107.9223564763581</v>
+        <v>107.9223564763583</v>
       </c>
       <c r="M2" t="n">
-        <v>69.00304256261356</v>
+        <v>69.00304256261344</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.8538051505889</v>
+        <v>25.85380515058876</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>373.1074090044253</v>
+        <v>373.1074090044254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120.0532872782788</v>
+        <v>120.053287278279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>60.72388915875382</v>
+        <v>60.72388915875399</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.1433859220625</v>
+        <v>106.1433859220626</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.98128738499597</v>
+        <v>43.98128738499588</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>373.1074090044253</v>
+        <v>373.1074090044254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.892868265313084</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.114653472833368</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27904,7 +27904,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>216.2198038224199</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,13 +27983,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>193.2886829531102</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>227.4907573863837</v>
+        <v>226.7441660601258</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>163.9118407444349</v>
+        <v>161.1904000093284</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>139.5579169048577</v>
       </c>
       <c r="F10" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28059,13 +28059,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>279.4429836147795</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28169,13 +28169,13 @@
         <v>131.3799611840208</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="D12" t="n">
         <v>131.3799611840208</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="F12" t="n">
         <v>131.3799611840208</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>83.54476967999807</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28229,13 +28229,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>103.3965814291634</v>
+        <v>19.85181174916568</v>
       </c>
       <c r="X12" t="n">
-        <v>131.3799611840208</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.3799611840208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28275,19 +28275,19 @@
         <v>131.3799611840208</v>
       </c>
       <c r="L13" t="n">
-        <v>131.3799611840208</v>
+        <v>124.9227880175244</v>
       </c>
       <c r="M13" t="n">
         <v>131.3799611840208</v>
       </c>
       <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>131.3799611840208</v>
       </c>
-      <c r="O13" t="n">
-        <v>124.922788017524</v>
-      </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="Q13" t="n">
         <v>131.3799611840208</v>
@@ -28403,10 +28403,10 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>131.3799611840208</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>131.3799611840208</v>
@@ -28421,7 +28421,7 @@
         <v>131.3799611840208</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I15" t="n">
         <v>80.18410416320769</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>83.54476967999807</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>129.5030536708301</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="V15" t="n">
+        <v>103.3965814291636</v>
+      </c>
+      <c r="W15" t="n">
         <v>131.3799611840208</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
-        <v>131.3799611840208</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.3799611840208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28512,10 +28512,10 @@
         <v>131.3799611840208</v>
       </c>
       <c r="L16" t="n">
-        <v>124.9227880175238</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>131.3799611840208</v>
       </c>
       <c r="N16" t="n">
         <v>131.3799611840208</v>
@@ -28524,7 +28524,7 @@
         <v>131.3799611840208</v>
       </c>
       <c r="P16" t="n">
-        <v>131.3799611840208</v>
+        <v>124.9227880175244</v>
       </c>
       <c r="Q16" t="n">
         <v>131.3799611840208</v>
@@ -28655,10 +28655,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>80.18410416320769</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>83.54476967999807</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>12.85463965966645</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>98.38401325645256</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28740,7 +28740,7 @@
         <v>160.2327182439978</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>148.704406723306</v>
       </c>
       <c r="J19" t="n">
         <v>77.49939401566408</v>
@@ -28779,13 +28779,13 @@
         <v>237.5233471060834</v>
       </c>
       <c r="V19" t="n">
-        <v>237.5233471060834</v>
+        <v>57.21967589993048</v>
       </c>
       <c r="W19" t="n">
         <v>237.5233471060834</v>
       </c>
       <c r="X19" t="n">
-        <v>194.1103909061904</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -28886,7 +28886,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.54476967999807</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28940,13 +28940,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>32.34486820293557</v>
+        <v>237.5233471060834</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>202.7244711265909</v>
       </c>
     </row>
     <row r="22">
@@ -29013,7 +29013,7 @@
         <v>226.9871093630283</v>
       </c>
       <c r="U22" t="n">
-        <v>237.5233471060834</v>
+        <v>57.21967589993042</v>
       </c>
       <c r="V22" t="n">
         <v>237.5233471060834</v>
@@ -29025,7 +29025,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>38.28098214594206</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>133.9399975588557</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>135.0117568722526</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>137.0759430815659</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I24" t="n">
         <v>80.18410416320769</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>83.54476967999807</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -29241,7 +29241,7 @@
         <v>67.37787329201956</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>167.2069181798454</v>
       </c>
       <c r="S25" t="n">
         <v>220.1072229623119</v>
@@ -29256,7 +29256,7 @@
         <v>237.5233471060834</v>
       </c>
       <c r="W25" t="n">
-        <v>224.4265940797761</v>
+        <v>237.0516560818678</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -29305,7 +29305,7 @@
         <v>150.1246733070585</v>
       </c>
       <c r="M26" t="n">
-        <v>150.1246733070591</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="N26" t="n">
         <v>150.1246733070585</v>
@@ -29354,10 +29354,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>150.1246733070585</v>
@@ -29366,13 +29366,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>34.9461606903012</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.6512419216643</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.18410416320769</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29405,19 +29405,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>5.604610395560769</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29436,13 +29436,13 @@
         <v>150.1246733070585</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="G28" t="n">
         <v>150.1246733070585</v>
@@ -29454,28 +29454,28 @@
         <v>148.704406723306</v>
       </c>
       <c r="J28" t="n">
+        <v>77.49939401566408</v>
+      </c>
+      <c r="K28" t="n">
+        <v>13.59656223642322</v>
+      </c>
+      <c r="L28" t="n">
         <v>150.1246733070585</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>150.1246733070585</v>
       </c>
-      <c r="L28" t="n">
-        <v>18.25269247051119</v>
-      </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>150.1246733070585</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
       <c r="Q28" t="n">
-        <v>150.1246733070585</v>
+        <v>67.37787329201956</v>
       </c>
       <c r="R28" t="n">
         <v>150.1246733070585</v>
@@ -29594,22 +29594,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.0759430815659</v>
       </c>
       <c r="H30" t="n">
-        <v>109.6512419216643</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.18410416320769</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,22 +29636,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.73325364509375</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>150.1246733070585</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>150.1246733070585</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>117.9354600596446</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29673,13 +29673,13 @@
         <v>150.1246733070585</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>150.1246733070585</v>
       </c>
       <c r="G31" t="n">
         <v>150.1246733070585</v>
@@ -29691,28 +29691,28 @@
         <v>148.704406723306</v>
       </c>
       <c r="J31" t="n">
+        <v>91.09595625208729</v>
+      </c>
+      <c r="K31" t="n">
         <v>150.1246733070585</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>150.1246733070585</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>18.25269247051126</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>150.1246733070585</v>
       </c>
       <c r="Q31" t="n">
-        <v>150.1246733070585</v>
+        <v>67.37787329201956</v>
       </c>
       <c r="R31" t="n">
         <v>150.1246733070585</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="C32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="D32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="E32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="F32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="G32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="H32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="I32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="J32" t="n">
-        <v>108.6665459358173</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="K32" t="n">
-        <v>151.903643861354</v>
+        <v>108.6665459358158</v>
       </c>
       <c r="L32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="M32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="N32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="O32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="P32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="R32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="S32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="T32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="U32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="V32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="W32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="X32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="Y32" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
     </row>
     <row r="33">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29834,13 +29834,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>63.57111200035528</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H33" t="n">
         <v>109.6512419216643</v>
@@ -29876,13 +29876,13 @@
         <v>83.54476967999807</v>
       </c>
       <c r="S33" t="n">
-        <v>151.903643861354</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>151.903643861354</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>48.74341122056742</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29904,37 +29904,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="C34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="G34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="H34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="I34" t="n">
-        <v>151.903643861354</v>
+        <v>148.704406723306</v>
       </c>
       <c r="J34" t="n">
-        <v>151.903643861354</v>
+        <v>77.49939401566408</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="L34" t="n">
-        <v>151.903643861354</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29943,37 +29943,37 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>151.903643861354</v>
+        <v>133.0452924225011</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.0601266271339</v>
+        <v>67.37787329201956</v>
       </c>
       <c r="R34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="S34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="T34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="U34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="V34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="W34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="X34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.903643861354</v>
+        <v>151.9036438613541</v>
       </c>
     </row>
     <row r="35">
@@ -30004,10 +30004,10 @@
         <v>220.9066864239676</v>
       </c>
       <c r="I35" t="n">
-        <v>220.9066864239676</v>
+        <v>191.1960010584324</v>
       </c>
       <c r="J35" t="n">
-        <v>48.00372961235528</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>180.1660369394775</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>220.9066864239676</v>
+        <v>118.4550644623804</v>
       </c>
       <c r="S35" t="n">
         <v>220.9066864239676</v>
@@ -30062,28 +30062,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>57.94961270132073</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.18410416320769</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,22 +30113,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>143.3394654048914</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0862173745079</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>220.9066864239676</v>
       </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30192,7 +30192,7 @@
         <v>167.2069181798454</v>
       </c>
       <c r="S37" t="n">
-        <v>220.1072229623119</v>
+        <v>100.5369257066368</v>
       </c>
       <c r="T37" t="n">
         <v>220.9066864239676</v>
@@ -30207,7 +30207,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3363891682925</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -30241,10 +30241,10 @@
         <v>220.9066864239676</v>
       </c>
       <c r="I38" t="n">
-        <v>220.9066864239676</v>
+        <v>191.1960010584324</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>203.4485544183141</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30265,13 +30265,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.00372961235439</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>220.9066864239676</v>
+        <v>118.4550644623804</v>
       </c>
       <c r="S38" t="n">
-        <v>220.9066864239676</v>
+        <v>197.6241689451301</v>
       </c>
       <c r="T38" t="n">
         <v>220.9066864239676</v>
@@ -30302,25 +30302,25 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>53.37479887060164</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0759430815659</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.18410416320769</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,10 +30347,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.54476967999807</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>199.0862173745079</v>
@@ -30359,7 +30359,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>45.88519712982568</v>
       </c>
     </row>
     <row r="40">
@@ -30426,7 +30426,7 @@
         <v>67.37787329201956</v>
       </c>
       <c r="R40" t="n">
-        <v>167.2069181798454</v>
+        <v>47.63662092417033</v>
       </c>
       <c r="S40" t="n">
         <v>220.1072229623119</v>
@@ -30435,7 +30435,7 @@
         <v>220.9066864239676</v>
       </c>
       <c r="U40" t="n">
-        <v>101.3363891682924</v>
+        <v>220.9066864239676</v>
       </c>
       <c r="V40" t="n">
         <v>220.9066864239676</v>
@@ -30478,17 +30478,17 @@
         <v>202.7792041895605</v>
       </c>
       <c r="I41" t="n">
+        <v>191.1960010584324</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>202.7792041895605</v>
       </c>
-      <c r="J41" t="n">
-        <v>202.7792041895605</v>
-      </c>
-      <c r="K41" t="n">
-        <v>140.0490382899697</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>151.6322414210985</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30539,7 +30539,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30548,16 +30548,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>109.6512419216643</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.18410416320769</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,10 +30587,10 @@
         <v>83.54476967999807</v>
       </c>
       <c r="S42" t="n">
-        <v>166.71309989434</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0862173745079</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30599,13 +30599,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>186.6766314229294</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>81.76318661742347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30627,7 +30627,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>149.7069187010722</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.7666542368038</v>
@@ -30663,7 +30663,7 @@
         <v>67.37787329201956</v>
       </c>
       <c r="R43" t="n">
-        <v>167.2069181798454</v>
+        <v>171.4927888579867</v>
       </c>
       <c r="S43" t="n">
         <v>202.7792041895605</v>
@@ -30724,13 +30724,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>157.7192557910845</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="M44" t="n">
-        <v>185.108986688446</v>
+        <v>29.45164503033448</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>194.9215329868157</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>202.7792041895605</v>
+        <v>118.4550644623804</v>
       </c>
       <c r="S44" t="n">
         <v>202.7792041895605</v>
@@ -30776,25 +30776,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>44.42052536344713</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0759430815659</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.6512419216643</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.18410416320769</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,13 +30827,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.0862173745079</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.7792041895605</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>19.60050727069122</v>
       </c>
     </row>
     <row r="46">
@@ -30885,7 +30885,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>4.285870678140867</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>67.37787329201956</v>
       </c>
       <c r="R46" t="n">
-        <v>171.4927888579863</v>
+        <v>167.2069181798454</v>
       </c>
       <c r="S46" t="n">
         <v>202.7792041895605</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5000943781070866</v>
+        <v>0.5000943781070867</v>
       </c>
       <c r="H11" t="n">
-        <v>5.121591549789201</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I11" t="n">
-        <v>19.27988851197347</v>
+        <v>19.27988851197348</v>
       </c>
       <c r="J11" t="n">
-        <v>42.44488522386637</v>
+        <v>42.44488522386639</v>
       </c>
       <c r="K11" t="n">
-        <v>63.61388024913936</v>
+        <v>63.61388024913938</v>
       </c>
       <c r="L11" t="n">
-        <v>78.91864357313413</v>
+        <v>78.91864357313415</v>
       </c>
       <c r="M11" t="n">
-        <v>87.81219696979602</v>
+        <v>87.81219696979605</v>
       </c>
       <c r="N11" t="n">
-        <v>89.2330901215928</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O11" t="n">
-        <v>84.26027664929045</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P11" t="n">
-        <v>71.91419668977173</v>
+        <v>71.91419668977176</v>
       </c>
       <c r="Q11" t="n">
-        <v>54.00456677381168</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R11" t="n">
-        <v>31.4140534787693</v>
+        <v>31.41405347876931</v>
       </c>
       <c r="S11" t="n">
         <v>11.39590064111525</v>
       </c>
       <c r="T11" t="n">
-        <v>2.189163140163772</v>
+        <v>2.189163140163773</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04000755024856691</v>
+        <v>0.04000755024856693</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H12" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I12" t="n">
-        <v>9.212528688207382</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J12" t="n">
-        <v>25.27988286276117</v>
+        <v>25.27988286276118</v>
       </c>
       <c r="K12" t="n">
-        <v>43.20734633295938</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L12" t="n">
-        <v>58.09760926238298</v>
+        <v>58.097609262383</v>
       </c>
       <c r="M12" t="n">
-        <v>67.79716972200514</v>
+        <v>67.79716972200515</v>
       </c>
       <c r="N12" t="n">
-        <v>69.59155906777191</v>
+        <v>69.59155906777193</v>
       </c>
       <c r="O12" t="n">
-        <v>63.66268073238035</v>
+        <v>63.66268073238037</v>
       </c>
       <c r="P12" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.15559680784555</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R12" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S12" t="n">
-        <v>4.970071209497863</v>
+        <v>4.970071209497865</v>
       </c>
       <c r="T12" t="n">
-        <v>1.078511320313704</v>
+        <v>1.078511320313705</v>
       </c>
       <c r="U12" t="n">
         <v>0.01760355800294405</v>
@@ -31908,34 +31908,34 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H13" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I13" t="n">
-        <v>6.746068203952265</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J13" t="n">
         <v>15.85978610100869</v>
       </c>
       <c r="K13" t="n">
-        <v>26.06250049773576</v>
+        <v>26.06250049773577</v>
       </c>
       <c r="L13" t="n">
-        <v>33.35102763223558</v>
+        <v>33.3510276322356</v>
       </c>
       <c r="M13" t="n">
-        <v>35.16398247906555</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N13" t="n">
         <v>34.32786157107876</v>
       </c>
       <c r="O13" t="n">
-        <v>31.70733628629076</v>
+        <v>31.70733628629077</v>
       </c>
       <c r="P13" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q13" t="n">
         <v>18.78416995967482</v>
@@ -31944,10 +31944,10 @@
         <v>10.08647319732403</v>
       </c>
       <c r="S13" t="n">
-        <v>3.909375074660364</v>
+        <v>3.909375074660365</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9584800652531931</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U13" t="n">
         <v>0.01223591572663653</v>
@@ -31990,7 +31990,7 @@
         <v>0.5000943781070867</v>
       </c>
       <c r="H14" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I14" t="n">
         <v>19.27988851197348</v>
@@ -32008,16 +32008,16 @@
         <v>87.81219696979605</v>
       </c>
       <c r="N14" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O14" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P14" t="n">
         <v>71.91419668977176</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.00456677381169</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R14" t="n">
         <v>31.41405347876931</v>
@@ -32066,19 +32066,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H15" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I15" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J15" t="n">
         <v>25.27988286276118</v>
       </c>
       <c r="K15" t="n">
-        <v>43.20734633295939</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L15" t="n">
         <v>58.097609262383</v>
@@ -32093,13 +32093,13 @@
         <v>63.66268073238037</v>
       </c>
       <c r="P15" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R15" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S15" t="n">
         <v>4.970071209497865</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H16" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I16" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J16" t="n">
         <v>15.85978610100869</v>
@@ -32163,7 +32163,7 @@
         <v>33.3510276322356</v>
       </c>
       <c r="M16" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N16" t="n">
         <v>34.32786157107876</v>
@@ -32172,7 +32172,7 @@
         <v>31.70733628629077</v>
       </c>
       <c r="P16" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q16" t="n">
         <v>18.78416995967482</v>
@@ -32184,7 +32184,7 @@
         <v>3.909375074660365</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U16" t="n">
         <v>0.01223591572663653</v>
@@ -32227,7 +32227,7 @@
         <v>0.5000943781070867</v>
       </c>
       <c r="H17" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I17" t="n">
         <v>19.27988851197348</v>
@@ -32245,16 +32245,16 @@
         <v>87.81219696979605</v>
       </c>
       <c r="N17" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O17" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P17" t="n">
         <v>71.91419668977176</v>
       </c>
       <c r="Q17" t="n">
-        <v>54.00456677381169</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R17" t="n">
         <v>31.41405347876931</v>
@@ -32303,19 +32303,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H18" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I18" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J18" t="n">
         <v>25.27988286276118</v>
       </c>
       <c r="K18" t="n">
-        <v>43.20734633295939</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L18" t="n">
         <v>58.097609262383</v>
@@ -32330,13 +32330,13 @@
         <v>63.66268073238037</v>
       </c>
       <c r="P18" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R18" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S18" t="n">
         <v>4.970071209497865</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H19" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I19" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J19" t="n">
         <v>15.85978610100869</v>
@@ -32400,7 +32400,7 @@
         <v>33.3510276322356</v>
       </c>
       <c r="M19" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N19" t="n">
         <v>34.32786157107876</v>
@@ -32409,7 +32409,7 @@
         <v>31.70733628629077</v>
       </c>
       <c r="P19" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q19" t="n">
         <v>18.78416995967482</v>
@@ -32421,7 +32421,7 @@
         <v>3.909375074660365</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U19" t="n">
         <v>0.01223591572663653</v>
@@ -32464,7 +32464,7 @@
         <v>0.5000943781070867</v>
       </c>
       <c r="H20" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I20" t="n">
         <v>19.27988851197348</v>
@@ -32482,16 +32482,16 @@
         <v>87.81219696979605</v>
       </c>
       <c r="N20" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O20" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P20" t="n">
         <v>71.91419668977176</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.00456677381169</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R20" t="n">
         <v>31.41405347876931</v>
@@ -32540,19 +32540,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H21" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I21" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J21" t="n">
         <v>25.27988286276118</v>
       </c>
       <c r="K21" t="n">
-        <v>43.20734633295939</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L21" t="n">
         <v>58.097609262383</v>
@@ -32567,13 +32567,13 @@
         <v>63.66268073238037</v>
       </c>
       <c r="P21" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R21" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S21" t="n">
         <v>4.970071209497865</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H22" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I22" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J22" t="n">
         <v>15.85978610100869</v>
@@ -32637,7 +32637,7 @@
         <v>33.3510276322356</v>
       </c>
       <c r="M22" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N22" t="n">
         <v>34.32786157107876</v>
@@ -32646,7 +32646,7 @@
         <v>31.70733628629077</v>
       </c>
       <c r="P22" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q22" t="n">
         <v>18.78416995967482</v>
@@ -32658,7 +32658,7 @@
         <v>3.909375074660365</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U22" t="n">
         <v>0.01223591572663653</v>
@@ -32701,7 +32701,7 @@
         <v>0.5000943781070867</v>
       </c>
       <c r="H23" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I23" t="n">
         <v>19.27988851197348</v>
@@ -32719,16 +32719,16 @@
         <v>87.81219696979605</v>
       </c>
       <c r="N23" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O23" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P23" t="n">
         <v>71.91419668977176</v>
       </c>
       <c r="Q23" t="n">
-        <v>54.00456677381169</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R23" t="n">
         <v>31.41405347876931</v>
@@ -32777,19 +32777,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H24" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I24" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J24" t="n">
         <v>25.27988286276118</v>
       </c>
       <c r="K24" t="n">
-        <v>43.20734633295939</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L24" t="n">
         <v>58.097609262383</v>
@@ -32804,13 +32804,13 @@
         <v>63.66268073238037</v>
       </c>
       <c r="P24" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R24" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S24" t="n">
         <v>4.970071209497865</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H25" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I25" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J25" t="n">
         <v>15.85978610100869</v>
@@ -32874,7 +32874,7 @@
         <v>33.3510276322356</v>
       </c>
       <c r="M25" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N25" t="n">
         <v>34.32786157107876</v>
@@ -32883,7 +32883,7 @@
         <v>31.70733628629077</v>
       </c>
       <c r="P25" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q25" t="n">
         <v>18.78416995967482</v>
@@ -32895,7 +32895,7 @@
         <v>3.909375074660365</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U25" t="n">
         <v>0.01223591572663653</v>
@@ -32938,7 +32938,7 @@
         <v>0.5000943781070867</v>
       </c>
       <c r="H26" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I26" t="n">
         <v>19.27988851197348</v>
@@ -32956,16 +32956,16 @@
         <v>87.81219696979605</v>
       </c>
       <c r="N26" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O26" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P26" t="n">
         <v>71.91419668977176</v>
       </c>
       <c r="Q26" t="n">
-        <v>54.00456677381169</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R26" t="n">
         <v>31.41405347876931</v>
@@ -33014,19 +33014,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H27" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I27" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J27" t="n">
         <v>25.27988286276118</v>
       </c>
       <c r="K27" t="n">
-        <v>43.20734633295939</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L27" t="n">
         <v>58.097609262383</v>
@@ -33041,13 +33041,13 @@
         <v>63.66268073238037</v>
       </c>
       <c r="P27" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R27" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S27" t="n">
         <v>4.970071209497865</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H28" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I28" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J28" t="n">
         <v>15.85978610100869</v>
@@ -33111,7 +33111,7 @@
         <v>33.3510276322356</v>
       </c>
       <c r="M28" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N28" t="n">
         <v>34.32786157107876</v>
@@ -33120,7 +33120,7 @@
         <v>31.70733628629077</v>
       </c>
       <c r="P28" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q28" t="n">
         <v>18.78416995967482</v>
@@ -33132,7 +33132,7 @@
         <v>3.909375074660365</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U28" t="n">
         <v>0.01223591572663653</v>
@@ -33175,7 +33175,7 @@
         <v>0.5000943781070867</v>
       </c>
       <c r="H29" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I29" t="n">
         <v>19.27988851197348</v>
@@ -33193,16 +33193,16 @@
         <v>87.81219696979605</v>
       </c>
       <c r="N29" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O29" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P29" t="n">
         <v>71.91419668977176</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.00456677381169</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R29" t="n">
         <v>31.41405347876931</v>
@@ -33251,19 +33251,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H30" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I30" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J30" t="n">
         <v>25.27988286276118</v>
       </c>
       <c r="K30" t="n">
-        <v>43.20734633295939</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L30" t="n">
         <v>58.097609262383</v>
@@ -33278,13 +33278,13 @@
         <v>63.66268073238037</v>
       </c>
       <c r="P30" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R30" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S30" t="n">
         <v>4.970071209497865</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H31" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I31" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J31" t="n">
         <v>15.85978610100869</v>
@@ -33348,7 +33348,7 @@
         <v>33.3510276322356</v>
       </c>
       <c r="M31" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N31" t="n">
         <v>34.32786157107876</v>
@@ -33357,7 +33357,7 @@
         <v>31.70733628629077</v>
       </c>
       <c r="P31" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q31" t="n">
         <v>18.78416995967482</v>
@@ -33369,7 +33369,7 @@
         <v>3.909375074660365</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U31" t="n">
         <v>0.01223591572663653</v>
@@ -33412,7 +33412,7 @@
         <v>0.5000943781070867</v>
       </c>
       <c r="H32" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I32" t="n">
         <v>19.27988851197348</v>
@@ -33430,16 +33430,16 @@
         <v>87.81219696979605</v>
       </c>
       <c r="N32" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O32" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P32" t="n">
         <v>71.91419668977176</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.00456677381169</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R32" t="n">
         <v>31.41405347876931</v>
@@ -33488,19 +33488,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H33" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I33" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J33" t="n">
         <v>25.27988286276118</v>
       </c>
       <c r="K33" t="n">
-        <v>43.20734633295939</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L33" t="n">
         <v>58.097609262383</v>
@@ -33515,13 +33515,13 @@
         <v>63.66268073238037</v>
       </c>
       <c r="P33" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R33" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S33" t="n">
         <v>4.970071209497865</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H34" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I34" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J34" t="n">
         <v>15.85978610100869</v>
@@ -33585,7 +33585,7 @@
         <v>33.3510276322356</v>
       </c>
       <c r="M34" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N34" t="n">
         <v>34.32786157107876</v>
@@ -33594,7 +33594,7 @@
         <v>31.70733628629077</v>
       </c>
       <c r="P34" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q34" t="n">
         <v>18.78416995967482</v>
@@ -33606,7 +33606,7 @@
         <v>3.909375074660365</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U34" t="n">
         <v>0.01223591572663653</v>
@@ -33649,7 +33649,7 @@
         <v>0.5000943781070867</v>
       </c>
       <c r="H35" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I35" t="n">
         <v>19.27988851197348</v>
@@ -33667,16 +33667,16 @@
         <v>87.81219696979605</v>
       </c>
       <c r="N35" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O35" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P35" t="n">
         <v>71.91419668977176</v>
       </c>
       <c r="Q35" t="n">
-        <v>54.00456677381169</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R35" t="n">
         <v>31.41405347876931</v>
@@ -33725,19 +33725,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H36" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I36" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J36" t="n">
         <v>25.27988286276118</v>
       </c>
       <c r="K36" t="n">
-        <v>43.20734633295939</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L36" t="n">
         <v>58.097609262383</v>
@@ -33752,13 +33752,13 @@
         <v>63.66268073238037</v>
       </c>
       <c r="P36" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R36" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S36" t="n">
         <v>4.970071209497865</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H37" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I37" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J37" t="n">
         <v>15.85978610100869</v>
@@ -33822,7 +33822,7 @@
         <v>33.3510276322356</v>
       </c>
       <c r="M37" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N37" t="n">
         <v>34.32786157107876</v>
@@ -33831,7 +33831,7 @@
         <v>31.70733628629077</v>
       </c>
       <c r="P37" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q37" t="n">
         <v>18.78416995967482</v>
@@ -33843,7 +33843,7 @@
         <v>3.909375074660365</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U37" t="n">
         <v>0.01223591572663653</v>
@@ -33886,7 +33886,7 @@
         <v>0.5000943781070867</v>
       </c>
       <c r="H38" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I38" t="n">
         <v>19.27988851197348</v>
@@ -33904,16 +33904,16 @@
         <v>87.81219696979605</v>
       </c>
       <c r="N38" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O38" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P38" t="n">
         <v>71.91419668977176</v>
       </c>
       <c r="Q38" t="n">
-        <v>54.00456677381169</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R38" t="n">
         <v>31.41405347876931</v>
@@ -33962,19 +33962,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H39" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I39" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J39" t="n">
         <v>25.27988286276118</v>
       </c>
       <c r="K39" t="n">
-        <v>43.20734633295939</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L39" t="n">
         <v>58.097609262383</v>
@@ -33989,13 +33989,13 @@
         <v>63.66268073238037</v>
       </c>
       <c r="P39" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R39" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S39" t="n">
         <v>4.970071209497865</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H40" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I40" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J40" t="n">
         <v>15.85978610100869</v>
@@ -34059,7 +34059,7 @@
         <v>33.3510276322356</v>
       </c>
       <c r="M40" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N40" t="n">
         <v>34.32786157107876</v>
@@ -34068,7 +34068,7 @@
         <v>31.70733628629077</v>
       </c>
       <c r="P40" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q40" t="n">
         <v>18.78416995967482</v>
@@ -34080,7 +34080,7 @@
         <v>3.909375074660365</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U40" t="n">
         <v>0.01223591572663653</v>
@@ -34123,7 +34123,7 @@
         <v>0.5000943781070867</v>
       </c>
       <c r="H41" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I41" t="n">
         <v>19.27988851197348</v>
@@ -34141,16 +34141,16 @@
         <v>87.81219696979605</v>
       </c>
       <c r="N41" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O41" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P41" t="n">
         <v>71.91419668977176</v>
       </c>
       <c r="Q41" t="n">
-        <v>54.00456677381169</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R41" t="n">
         <v>31.41405347876931</v>
@@ -34199,19 +34199,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H42" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I42" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J42" t="n">
         <v>25.27988286276118</v>
       </c>
       <c r="K42" t="n">
-        <v>43.20734633295939</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L42" t="n">
         <v>58.097609262383</v>
@@ -34226,13 +34226,13 @@
         <v>63.66268073238037</v>
       </c>
       <c r="P42" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R42" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S42" t="n">
         <v>4.970071209497865</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H43" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I43" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J43" t="n">
         <v>15.85978610100869</v>
@@ -34296,7 +34296,7 @@
         <v>33.3510276322356</v>
       </c>
       <c r="M43" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N43" t="n">
         <v>34.32786157107876</v>
@@ -34305,7 +34305,7 @@
         <v>31.70733628629077</v>
       </c>
       <c r="P43" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q43" t="n">
         <v>18.78416995967482</v>
@@ -34317,7 +34317,7 @@
         <v>3.909375074660365</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U43" t="n">
         <v>0.01223591572663653</v>
@@ -34360,7 +34360,7 @@
         <v>0.5000943781070867</v>
       </c>
       <c r="H44" t="n">
-        <v>5.121591549789202</v>
+        <v>5.121591549789203</v>
       </c>
       <c r="I44" t="n">
         <v>19.27988851197348</v>
@@ -34378,16 +34378,16 @@
         <v>87.81219696979605</v>
       </c>
       <c r="N44" t="n">
-        <v>89.23309012159281</v>
+        <v>89.23309012159282</v>
       </c>
       <c r="O44" t="n">
-        <v>84.26027664929046</v>
+        <v>84.26027664929047</v>
       </c>
       <c r="P44" t="n">
         <v>71.91419668977176</v>
       </c>
       <c r="Q44" t="n">
-        <v>54.00456677381169</v>
+        <v>54.0045667738117</v>
       </c>
       <c r="R44" t="n">
         <v>31.41405347876931</v>
@@ -34436,19 +34436,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2675740816447494</v>
+        <v>0.2675740816447495</v>
       </c>
       <c r="H45" t="n">
         <v>2.584202314832186</v>
       </c>
       <c r="I45" t="n">
-        <v>9.212528688207383</v>
+        <v>9.212528688207385</v>
       </c>
       <c r="J45" t="n">
         <v>25.27988286276118</v>
       </c>
       <c r="K45" t="n">
-        <v>43.20734633295939</v>
+        <v>43.2073463329594</v>
       </c>
       <c r="L45" t="n">
         <v>58.097609262383</v>
@@ -34463,13 +34463,13 @@
         <v>63.66268073238037</v>
       </c>
       <c r="P45" t="n">
-        <v>51.09491388881185</v>
+        <v>51.09491388881186</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.15559680784556</v>
+        <v>34.15559680784557</v>
       </c>
       <c r="R45" t="n">
-        <v>16.61306447264506</v>
+        <v>16.61306447264507</v>
       </c>
       <c r="S45" t="n">
         <v>4.970071209497865</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2243251216550027</v>
+        <v>0.2243251216550028</v>
       </c>
       <c r="H46" t="n">
         <v>1.994454263441753</v>
       </c>
       <c r="I46" t="n">
-        <v>6.746068203952267</v>
+        <v>6.746068203952268</v>
       </c>
       <c r="J46" t="n">
         <v>15.85978610100869</v>
@@ -34533,7 +34533,7 @@
         <v>33.3510276322356</v>
       </c>
       <c r="M46" t="n">
-        <v>35.16398247906556</v>
+        <v>35.16398247906557</v>
       </c>
       <c r="N46" t="n">
         <v>34.32786157107876</v>
@@ -34542,7 +34542,7 @@
         <v>31.70733628629077</v>
       </c>
       <c r="P46" t="n">
-        <v>27.13110380452868</v>
+        <v>27.13110380452869</v>
       </c>
       <c r="Q46" t="n">
         <v>18.78416995967482</v>
@@ -34554,7 +34554,7 @@
         <v>3.909375074660365</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9584800652531933</v>
+        <v>0.9584800652531934</v>
       </c>
       <c r="U46" t="n">
         <v>0.01223591572663653</v>
@@ -35176,10 +35176,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M8" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M9" t="n">
-        <v>6.598225711743296</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>6.876045741711437</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M10" t="n">
         <v>6.876045741711437</v>
@@ -35343,7 +35343,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>30.49559586925385</v>
+        <v>30.49559586925388</v>
       </c>
       <c r="K11" t="n">
-        <v>167.6694417753235</v>
+        <v>167.6694417753236</v>
       </c>
       <c r="L11" t="n">
         <v>260.8134431535973</v>
@@ -35422,13 +35422,13 @@
         <v>297.166950936986</v>
       </c>
       <c r="O11" t="n">
-        <v>234.9622464903491</v>
+        <v>234.9622464903492</v>
       </c>
       <c r="P11" t="n">
-        <v>162.4799091059848</v>
+        <v>162.4799091059849</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.01386755926688</v>
+        <v>44.01386755926689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>379.9834547461368</v>
       </c>
       <c r="N12" t="n">
-        <v>300.0151011142384</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>300.0151011142386</v>
       </c>
       <c r="P12" t="n">
         <v>235.5832751144188</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.88056716835674</v>
+        <v>53.88056716835672</v>
       </c>
       <c r="K13" t="n">
         <v>135.1729698558737</v>
       </c>
       <c r="L13" t="n">
-        <v>192.3210140765726</v>
+        <v>185.8638409100761</v>
       </c>
       <c r="M13" t="n">
         <v>206.127820624927</v>
       </c>
       <c r="N13" t="n">
-        <v>209.8399951343282</v>
+        <v>78.46003395030735</v>
       </c>
       <c r="O13" t="n">
-        <v>181.2152522178544</v>
+        <v>187.6724253843512</v>
       </c>
       <c r="P13" t="n">
-        <v>24.40966306942217</v>
+        <v>155.789624253443</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.00208789200126</v>
+        <v>64.00208789200124</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>30.49559586925387</v>
+        <v>30.49559586925388</v>
       </c>
       <c r="K14" t="n">
         <v>167.6694417753236</v>
@@ -35665,7 +35665,7 @@
         <v>162.4799091059849</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.01386755926688</v>
+        <v>44.01386755926689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>24.53329153650332</v>
       </c>
       <c r="K15" t="n">
         <v>169.831144371179</v>
@@ -35732,16 +35732,16 @@
         <v>290.383574785968</v>
       </c>
       <c r="M15" t="n">
-        <v>324.5483926507417</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>379.9834547461368</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>314.9287555646654</v>
       </c>
       <c r="P15" t="n">
-        <v>235.5832751144188</v>
+        <v>220.669620663992</v>
       </c>
       <c r="Q15" t="n">
         <v>104.2511104576731</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.88056716835675</v>
+        <v>53.88056716835672</v>
       </c>
       <c r="K16" t="n">
-        <v>135.1729698558738</v>
+        <v>135.1729698558737</v>
       </c>
       <c r="L16" t="n">
-        <v>185.8638409100755</v>
+        <v>60.94105289255174</v>
       </c>
       <c r="M16" t="n">
-        <v>74.74785944090615</v>
+        <v>206.127820624927</v>
       </c>
       <c r="N16" t="n">
-        <v>209.8399951343282</v>
+        <v>209.8399951343281</v>
       </c>
       <c r="O16" t="n">
-        <v>187.6724253843513</v>
+        <v>187.6724253843512</v>
       </c>
       <c r="P16" t="n">
-        <v>155.789624253443</v>
+        <v>149.3324510869465</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.00208789200127</v>
+        <v>64.00208789200124</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>30.49559586925387</v>
+        <v>30.49559586925388</v>
       </c>
       <c r="K17" t="n">
         <v>167.6694417753236</v>
@@ -35902,7 +35902,7 @@
         <v>162.4799091059849</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.01386755926688</v>
+        <v>44.01386755926689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>24.53329153650332</v>
       </c>
       <c r="K18" t="n">
-        <v>169.831144371179</v>
+        <v>65.31760996058335</v>
       </c>
       <c r="L18" t="n">
-        <v>259.8541426979994</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>379.9834547461368</v>
@@ -35978,10 +35978,10 @@
         <v>314.9287555646654</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>235.5832751144188</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>104.2511104576731</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.793008671852917</v>
+        <v>3.79300867185292</v>
       </c>
       <c r="L19" t="n">
         <v>60.94105289255174</v>
@@ -36057,7 +36057,7 @@
         <v>56.29246420033044</v>
       </c>
       <c r="P19" t="n">
-        <v>24.40966306942217</v>
+        <v>24.40966306942218</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>30.49559586925387</v>
+        <v>30.4955958692538</v>
       </c>
       <c r="K20" t="n">
         <v>167.6694417753236</v>
@@ -36139,7 +36139,7 @@
         <v>162.4799091059849</v>
       </c>
       <c r="Q20" t="n">
-        <v>44.01386755926688</v>
+        <v>44.01386755926689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>379.9834547461368</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>379.9834547461368</v>
       </c>
       <c r="O21" t="n">
-        <v>314.9287555646654</v>
+        <v>155.6149214825205</v>
       </c>
       <c r="P21" t="n">
-        <v>235.5832751144188</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.33745600724609</v>
+        <v>104.2511104576731</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.793008671852917</v>
+        <v>3.79300867185292</v>
       </c>
       <c r="L22" t="n">
         <v>60.94105289255174</v>
@@ -36294,7 +36294,7 @@
         <v>56.29246420033044</v>
       </c>
       <c r="P22" t="n">
-        <v>24.40966306942217</v>
+        <v>24.40966306942218</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>30.49559586925387</v>
+        <v>30.49559586925388</v>
       </c>
       <c r="K23" t="n">
         <v>167.6694417753236</v>
@@ -36376,7 +36376,7 @@
         <v>162.4799091059849</v>
       </c>
       <c r="Q23" t="n">
-        <v>44.01386755926688</v>
+        <v>44.01386755926689</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.53329153650332</v>
       </c>
       <c r="K24" t="n">
         <v>169.831144371179</v>
@@ -36443,13 +36443,13 @@
         <v>290.383574785968</v>
       </c>
       <c r="M24" t="n">
-        <v>9.619637086076306</v>
+        <v>379.9834547461368</v>
       </c>
       <c r="N24" t="n">
-        <v>379.9834547461368</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>314.9287555646654</v>
+        <v>300.0151011142386</v>
       </c>
       <c r="P24" t="n">
         <v>235.5832751144188</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.793008671852917</v>
+        <v>3.79300867185292</v>
       </c>
       <c r="L25" t="n">
         <v>60.94105289255174</v>
@@ -36531,7 +36531,7 @@
         <v>56.29246420033044</v>
       </c>
       <c r="P25" t="n">
-        <v>24.40966306942217</v>
+        <v>24.40966306942218</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>410.9381164606559</v>
       </c>
       <c r="M26" t="n">
-        <v>457.1041705424149</v>
+        <v>457.1041705424144</v>
       </c>
       <c r="N26" t="n">
         <v>447.2916242440446</v>
@@ -36616,7 +36616,7 @@
         <v>194.1385408663254</v>
       </c>
       <c r="R26" t="n">
-        <v>31.66960884467814</v>
+        <v>31.66960884467815</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.509200288846159</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3.690710660489344</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>4.70362528412727</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.62527929139443</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>153.9176819789114</v>
+        <v>17.38957090827614</v>
       </c>
       <c r="L28" t="n">
-        <v>79.19374536306293</v>
+        <v>211.0657261996103</v>
       </c>
       <c r="M28" t="n">
-        <v>224.8725327479647</v>
+        <v>74.74785944090615</v>
       </c>
       <c r="N28" t="n">
-        <v>78.46003395030735</v>
+        <v>228.5847072573659</v>
       </c>
       <c r="O28" t="n">
         <v>56.29246420033044</v>
       </c>
       <c r="P28" t="n">
-        <v>24.40966306942217</v>
+        <v>174.5343363764807</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.74680001503896</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>194.1385408663254</v>
       </c>
       <c r="R29" t="n">
-        <v>31.66960884467814</v>
+        <v>31.66960884467815</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.509200288846159</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.690710660489344</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4.70362528412727</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.62527929139443</v>
+        <v>13.59656223642321</v>
       </c>
       <c r="K31" t="n">
-        <v>3.793008671852917</v>
+        <v>153.9176819789114</v>
       </c>
       <c r="L31" t="n">
-        <v>211.0657261996103</v>
+        <v>60.94105289255174</v>
       </c>
       <c r="M31" t="n">
-        <v>74.74785944090615</v>
+        <v>224.8725327479647</v>
       </c>
       <c r="N31" t="n">
         <v>78.46003395030735</v>
       </c>
       <c r="O31" t="n">
-        <v>74.54515667084171</v>
+        <v>56.29246420033044</v>
       </c>
       <c r="P31" t="n">
         <v>174.5343363764807</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.74680001503896</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>139.1621418050712</v>
+        <v>182.399239730608</v>
       </c>
       <c r="K32" t="n">
-        <v>319.5730856366776</v>
+        <v>276.3359877111394</v>
       </c>
       <c r="L32" t="n">
-        <v>412.7170870149513</v>
+        <v>412.7170870149515</v>
       </c>
       <c r="M32" t="n">
-        <v>458.8831410967098</v>
+        <v>458.8831410967099</v>
       </c>
       <c r="N32" t="n">
-        <v>449.07059479834</v>
+        <v>449.0705947983402</v>
       </c>
       <c r="O32" t="n">
-        <v>386.8658903517031</v>
+        <v>386.8658903517032</v>
       </c>
       <c r="P32" t="n">
-        <v>314.3835529673389</v>
+        <v>314.383552967339</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.9175114206209</v>
+        <v>195.917511420621</v>
       </c>
       <c r="R32" t="n">
-        <v>33.44857939897366</v>
+        <v>33.44857939897378</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3.288170843141785</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>5.46968121478497</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.482595838422895</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,16 +37221,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.19923713804801</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.40424984568995</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>3.793008671852917</v>
+        <v>155.6966525332071</v>
       </c>
       <c r="L34" t="n">
-        <v>212.8446967539058</v>
+        <v>60.94105289255174</v>
       </c>
       <c r="M34" t="n">
         <v>74.74785944090615</v>
@@ -37239,13 +37239,13 @@
         <v>78.46003395030735</v>
       </c>
       <c r="O34" t="n">
-        <v>208.1961080616845</v>
+        <v>189.3377566228315</v>
       </c>
       <c r="P34" t="n">
-        <v>24.40966306942217</v>
+        <v>176.3133069307763</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.68225333511434</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>29.71068536553515</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>78.49932548160915</v>
+        <v>30.49559586925388</v>
       </c>
       <c r="K35" t="n">
         <v>167.6694417753236</v>
@@ -37318,16 +37318,16 @@
         <v>297.166950936986</v>
       </c>
       <c r="O35" t="n">
-        <v>234.9622464903491</v>
+        <v>415.1282834298266</v>
       </c>
       <c r="P35" t="n">
         <v>162.4799091059849</v>
       </c>
       <c r="Q35" t="n">
-        <v>44.01386755926688</v>
+        <v>44.01386755926689</v>
       </c>
       <c r="R35" t="n">
-        <v>102.4516219615872</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>23.28251747883749</v>
@@ -37385,7 +37385,7 @@
         <v>24.53329153650332</v>
       </c>
       <c r="K36" t="n">
-        <v>169.831144371179</v>
+        <v>164.9723533216439</v>
       </c>
       <c r="L36" t="n">
         <v>290.383574785968</v>
@@ -37394,13 +37394,13 @@
         <v>391.3681995499867</v>
       </c>
       <c r="N36" t="n">
-        <v>177.1501551640383</v>
+        <v>417.5922213279921</v>
       </c>
       <c r="O36" t="n">
         <v>314.9287555646654</v>
       </c>
       <c r="P36" t="n">
-        <v>235.5832751144188</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>104.2511104576731</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.793008671852917</v>
+        <v>3.79300867185292</v>
       </c>
       <c r="L37" t="n">
         <v>60.94105289255174</v>
@@ -37479,7 +37479,7 @@
         <v>56.29246420033044</v>
       </c>
       <c r="P37" t="n">
-        <v>24.40966306942217</v>
+        <v>24.40966306942218</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>29.71068536553515</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.49559586925387</v>
+        <v>233.944150287568</v>
       </c>
       <c r="K38" t="n">
         <v>167.6694417753236</v>
@@ -37561,13 +37561,13 @@
         <v>162.4799091059849</v>
       </c>
       <c r="Q38" t="n">
-        <v>92.01759717162128</v>
+        <v>44.01386755926689</v>
       </c>
       <c r="R38" t="n">
-        <v>102.4516219615872</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>23.28251747883749</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>24.53329153650332</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>169.831144371179</v>
       </c>
       <c r="L39" t="n">
         <v>290.383574785968</v>
@@ -37634,13 +37634,13 @@
         <v>417.5922213279921</v>
       </c>
       <c r="O39" t="n">
-        <v>314.9287555646654</v>
+        <v>74.48668940071066</v>
       </c>
       <c r="P39" t="n">
         <v>235.5832751144188</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.17348020140059</v>
+        <v>104.2511104576731</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.793008671852917</v>
+        <v>3.79300867185292</v>
       </c>
       <c r="L40" t="n">
         <v>60.94105289255174</v>
@@ -37716,7 +37716,7 @@
         <v>56.29246420033044</v>
       </c>
       <c r="P40" t="n">
-        <v>24.40966306942217</v>
+        <v>24.40966306942218</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,16 +37774,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.58320313112808</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>233.2748000588144</v>
+        <v>30.49559586925388</v>
       </c>
       <c r="K41" t="n">
-        <v>307.7184800652933</v>
+        <v>167.6694417753236</v>
       </c>
       <c r="L41" t="n">
-        <v>260.8134431535973</v>
+        <v>463.5926473431578</v>
       </c>
       <c r="M41" t="n">
         <v>306.9794972353558</v>
@@ -37795,16 +37795,16 @@
         <v>234.9622464903491</v>
       </c>
       <c r="P41" t="n">
-        <v>162.4799091059849</v>
+        <v>314.1121505270833</v>
       </c>
       <c r="Q41" t="n">
-        <v>44.01386755926688</v>
+        <v>44.01386755926689</v>
       </c>
       <c r="R41" t="n">
-        <v>84.32413972718015</v>
+        <v>84.3241397271801</v>
       </c>
       <c r="S41" t="n">
-        <v>5.155035244430424</v>
+        <v>5.155035244430369</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.53329153650332</v>
+        <v>24.5332915365037</v>
       </c>
       <c r="K42" t="n">
         <v>169.831144371179</v>
@@ -37877,7 +37877,7 @@
         <v>235.5832751144188</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.2511104576729</v>
+        <v>104.2511104576731</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>4.285870678140931</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.793008671852917</v>
+        <v>3.79300867185292</v>
       </c>
       <c r="L43" t="n">
         <v>60.94105289255174</v>
@@ -37953,13 +37953,13 @@
         <v>56.29246420033044</v>
       </c>
       <c r="P43" t="n">
-        <v>24.40966306942217</v>
+        <v>24.40966306942218</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.285870678141218</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>11.58320313112808</v>
       </c>
       <c r="J44" t="n">
-        <v>30.49559586925387</v>
+        <v>30.49559586925388</v>
       </c>
       <c r="K44" t="n">
         <v>167.6694417753236</v>
       </c>
       <c r="L44" t="n">
-        <v>418.5326989446818</v>
+        <v>463.5926473431579</v>
       </c>
       <c r="M44" t="n">
+        <v>336.4311422656903</v>
+      </c>
+      <c r="N44" t="n">
         <v>492.0884839238018</v>
-      </c>
-      <c r="N44" t="n">
-        <v>297.166950936986</v>
       </c>
       <c r="O44" t="n">
         <v>234.9622464903491</v>
@@ -38035,13 +38035,13 @@
         <v>162.4799091059849</v>
       </c>
       <c r="Q44" t="n">
-        <v>44.01386755926688</v>
+        <v>44.01386755926689</v>
       </c>
       <c r="R44" t="n">
-        <v>84.32413972718015</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.155035244430424</v>
+        <v>5.155035244430426</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.793008671852917</v>
+        <v>3.79300867185292</v>
       </c>
       <c r="L46" t="n">
         <v>60.94105289255174</v>
       </c>
       <c r="M46" t="n">
-        <v>74.74785944090615</v>
+        <v>79.03373011904702</v>
       </c>
       <c r="N46" t="n">
         <v>78.46003395030735</v>
@@ -38190,13 +38190,13 @@
         <v>56.29246420033044</v>
       </c>
       <c r="P46" t="n">
-        <v>24.40966306942217</v>
+        <v>24.40966306942218</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.285870678140816</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
